--- a/docs/FeatureCompatibility.xlsx
+++ b/docs/FeatureCompatibility.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2592\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62A07544-A8B8-44EF-8E70-17EA0820C847}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58BA46B4-6823-4DD8-8536-F21A5031EE65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38445" yWindow="435" windowWidth="28755" windowHeight="16395" xr2:uid="{46F717FF-FE5F-3D4F-A8F5-51784E44D20C}"/>
   </bookViews>
@@ -362,10 +362,10 @@
     <t>aws_tgw_directconnect</t>
   </si>
   <si>
-    <t>will forcenew</t>
-  </si>
-  <si>
     <t>directconnect_account_name</t>
+  </si>
+  <si>
+    <t>Export for this resource is not implemented yet</t>
   </si>
   <si>
     <t>dx_gateway_id</t>
@@ -1504,7 +1504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1569,7 +1569,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1887,8 +1886,8 @@
   <dimension ref="A1:N784"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C379" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A383" sqref="A383"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C76" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="L80" sqref="L80"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -4033,47 +4032,48 @@
       <c r="J80" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="K80" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="L80" s="28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="15.75">
+      <c r="K80" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="L80" s="28"/>
+    </row>
+    <row r="81" spans="1:12" ht="15.75">
       <c r="A81" s="17"/>
       <c r="B81" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G81" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J81" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K81" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="L81" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G81" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J81" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="K81" s="58" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="15.75">
+    </row>
+    <row r="82" spans="1:12" ht="15.75">
       <c r="A82" s="17"/>
       <c r="B82" s="16" t="s">
         <v>111</v>
@@ -4102,11 +4102,11 @@
       <c r="J82" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="K82" s="58" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="15.75">
+      <c r="K82" s="43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="15.75">
       <c r="A83" s="17"/>
       <c r="B83" s="16" t="s">
         <v>112</v>
@@ -4135,11 +4135,11 @@
       <c r="J83" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="K83" s="58" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="15.75">
+      <c r="K83" s="43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="15.75">
       <c r="A84" s="17"/>
       <c r="B84" s="16" t="s">
         <v>113</v>
@@ -4168,16 +4168,16 @@
       <c r="J84" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="K84" s="58" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="15.75">
+      <c r="K84" s="43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="15.75">
       <c r="A86" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="15.75">
+    <row r="87" spans="1:12" ht="15.75">
       <c r="B87" s="16" t="s">
         <v>85</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="15.75">
+    <row r="88" spans="1:12" ht="15.75">
       <c r="B88" s="16" t="s">
         <v>86</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="15.75">
+    <row r="89" spans="1:12" ht="15.75">
       <c r="B89" s="16" t="s">
         <v>112</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="15.75">
+    <row r="90" spans="1:12" ht="15.75">
       <c r="B90" s="16" t="s">
         <v>116</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="15.75">
+    <row r="91" spans="1:12" ht="15.75">
       <c r="B91" s="16" t="s">
         <v>118</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15.75">
+    <row r="92" spans="1:12" ht="15.75">
       <c r="B92" s="39" t="s">
         <v>119</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="15.75">
+    <row r="93" spans="1:12" ht="15.75">
       <c r="B93" s="39" t="s">
         <v>120</v>
       </c>
@@ -4401,12 +4401,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="15.75">
+    <row r="95" spans="1:12" ht="15.75">
       <c r="A95" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="15.75">
+    <row r="96" spans="1:12" ht="15.75">
       <c r="B96" s="16" t="s">
         <v>85</v>
       </c>

--- a/docs/FeatureCompatibility.xlsx
+++ b/docs/FeatureCompatibility.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23120"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_3b19\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FA3DAD5-B72B-48AA-B9ED-5A821AD16E9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1092BD5-2ABB-4DAE-81B5-54D209316653}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38445" yWindow="435" windowWidth="28755" windowHeight="16395" firstSheet="2" activeTab="4" xr2:uid="{46F717FF-FE5F-3D4F-A8F5-51784E44D20C}"/>
+    <workbookView xWindow="38445" yWindow="435" windowWidth="28755" windowHeight="16395" firstSheet="10" activeTab="3" xr2:uid="{46F717FF-FE5F-3D4F-A8F5-51784E44D20C}"/>
   </bookViews>
   <sheets>
     <sheet name="Accounts" sheetId="3" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18899" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18915" uniqueCount="704">
   <si>
     <t>Resource</t>
   </si>
@@ -1133,6 +1133,9 @@
     <t>spoke_vpc_id</t>
   </si>
   <si>
+    <t>2.16.2</t>
+  </si>
+  <si>
     <t>aws_tgw</t>
   </si>
   <si>
@@ -1160,6 +1163,9 @@
     <t>&gt;&gt; connected_domains</t>
   </si>
   <si>
+    <t>R2.16.2 : 16192</t>
+  </si>
+  <si>
     <t>R2.6 : 11118</t>
   </si>
   <si>
@@ -1967,28 +1973,34 @@
     <t>11326 : U5.1</t>
   </si>
   <si>
+    <t>R2.17 : U6.2</t>
+  </si>
+  <si>
+    <t>private_subnets</t>
+  </si>
+  <si>
+    <t>&gt;&gt; subnet_id</t>
+  </si>
+  <si>
+    <t>vpc (GCP)</t>
+  </si>
+  <si>
+    <t>15316 Fix for vpc_id</t>
+  </si>
+  <si>
+    <t>vpc (ARM)</t>
+  </si>
+  <si>
+    <t>R2.9 : 11612</t>
+  </si>
+  <si>
+    <t>should block on creation</t>
+  </si>
+  <si>
+    <t>vpc (OCI)</t>
+  </si>
+  <si>
     <t>deprecated</t>
-  </si>
-  <si>
-    <t>private_subnets</t>
-  </si>
-  <si>
-    <t>vpc (GCP)</t>
-  </si>
-  <si>
-    <t>15316 Fix for vpc_id</t>
-  </si>
-  <si>
-    <t>vpc (ARM)</t>
-  </si>
-  <si>
-    <t>R2.9 : 11612</t>
-  </si>
-  <si>
-    <t>should block on creation</t>
-  </si>
-  <si>
-    <t>vpc (OCI)</t>
   </si>
   <si>
     <t>controller_config</t>
@@ -2174,7 +2186,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2242,14 +2254,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
@@ -2454,7 +2458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2566,7 +2570,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4403,7 +4406,7 @@
   <dimension ref="A1:L717"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="G44" sqref="G44"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
@@ -4565,7 +4568,7 @@
     </row>
     <row r="10" spans="1:12" ht="15.75">
       <c r="A10" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75">
@@ -4602,7 +4605,7 @@
     </row>
     <row r="12" spans="1:12" ht="15.75">
       <c r="B12" s="16" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>28</v>
@@ -4634,7 +4637,7 @@
     </row>
     <row r="13" spans="1:12" ht="15.75">
       <c r="B13" s="16" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>28</v>
@@ -4666,7 +4669,7 @@
     </row>
     <row r="14" spans="1:12" ht="15.75">
       <c r="B14" s="16" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>28</v>
@@ -4794,10 +4797,10 @@
     </row>
     <row r="18" spans="1:12" ht="15.75">
       <c r="B18" s="16" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>28</v>
@@ -4826,7 +4829,7 @@
     </row>
     <row r="19" spans="1:12" ht="15.75">
       <c r="B19" s="16" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>28</v>
@@ -4856,12 +4859,12 @@
         <v>134</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75">
       <c r="B20" s="16" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>28</v>
@@ -4893,7 +4896,7 @@
     </row>
     <row r="21" spans="1:12" ht="15.75">
       <c r="B21" s="22" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>55</v>
@@ -4925,12 +4928,12 @@
     </row>
     <row r="23" spans="1:12" ht="15.75">
       <c r="A23" s="1" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75">
       <c r="B24" s="16" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>28</v>
@@ -4962,7 +4965,7 @@
     </row>
     <row r="25" spans="1:12" ht="15.75">
       <c r="B25" s="16" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>28</v>
@@ -4994,7 +4997,7 @@
     </row>
     <row r="26" spans="1:12" ht="15.75">
       <c r="B26" s="16" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>28</v>
@@ -5026,7 +5029,7 @@
     </row>
     <row r="27" spans="1:12" ht="15.75">
       <c r="B27" s="16" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>28</v>
@@ -5058,12 +5061,12 @@
     </row>
     <row r="29" spans="1:12" ht="15.75">
       <c r="A29" s="1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75">
       <c r="B30" s="16" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>28</v>
@@ -5095,7 +5098,7 @@
     </row>
     <row r="31" spans="1:12" ht="15.75">
       <c r="B31" s="16" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>28</v>
@@ -5127,7 +5130,7 @@
     </row>
     <row r="32" spans="1:12" ht="15.75">
       <c r="B32" s="16" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>28</v>
@@ -5159,7 +5162,7 @@
     </row>
     <row r="33" spans="1:12" ht="15.75">
       <c r="B33" s="16" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>28</v>
@@ -5168,7 +5171,7 @@
         <v>28</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>28</v>
@@ -5192,7 +5195,7 @@
     </row>
     <row r="34" spans="1:12" ht="15.75">
       <c r="B34" s="16" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>28</v>
@@ -5225,10 +5228,10 @@
     </row>
     <row r="35" spans="1:12" ht="15.75">
       <c r="B35" s="100" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>28</v>
@@ -5258,7 +5261,7 @@
     </row>
     <row r="36" spans="1:12" ht="15.75">
       <c r="B36" s="16" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>28</v>
@@ -5290,7 +5293,7 @@
     </row>
     <row r="37" spans="1:12" ht="15.75">
       <c r="B37" s="16" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>28</v>
@@ -5322,7 +5325,7 @@
     </row>
     <row r="38" spans="1:12" ht="15.75">
       <c r="B38" s="16" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>28</v>
@@ -5354,7 +5357,7 @@
     </row>
     <row r="39" spans="1:12" ht="15.75">
       <c r="B39" s="16" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>28</v>
@@ -5386,7 +5389,7 @@
     </row>
     <row r="40" spans="1:12" ht="15.75">
       <c r="B40" s="100" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>192</v>
@@ -5418,7 +5421,7 @@
     </row>
     <row r="42" spans="1:12" ht="15.75">
       <c r="A42" s="17" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="L42">
         <v>16147</v>
@@ -5455,7 +5458,7 @@
     </row>
     <row r="44" spans="1:12">
       <c r="B44" s="16" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>195</v>
@@ -5497,11 +5500,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF18A52-574D-4701-9044-6ED3378CF3B9}">
-  <dimension ref="A1:L804"/>
+  <dimension ref="A1:L807"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="L57" sqref="L57"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -5598,7 +5601,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="76">
-        <v>2.16</v>
+        <v>2.17</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" t="s">
@@ -5662,7 +5665,7 @@
     </row>
     <row r="10" spans="1:12" ht="15.75">
       <c r="A10" s="1" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75">
@@ -5731,7 +5734,7 @@
     </row>
     <row r="13" spans="1:12" ht="15.75">
       <c r="B13" s="16" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>28</v>
@@ -5763,7 +5766,7 @@
     </row>
     <row r="14" spans="1:12" ht="15.75">
       <c r="B14" s="16" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>28</v>
@@ -5795,7 +5798,7 @@
     </row>
     <row r="15" spans="1:12" ht="15.75">
       <c r="B15" s="16" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>28</v>
@@ -5830,7 +5833,7 @@
     </row>
     <row r="16" spans="1:12" ht="15.75">
       <c r="B16" s="16" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>28</v>
@@ -5857,50 +5860,50 @@
         <v>28</v>
       </c>
       <c r="K16" s="56" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75">
       <c r="B17" s="16" t="s">
+        <v>636</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="56" t="s">
         <v>634</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="56" t="s">
-        <v>632</v>
-      </c>
       <c r="L17" s="12" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75">
       <c r="B18" s="32" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>146</v>
@@ -5932,7 +5935,7 @@
     </row>
     <row r="19" spans="1:12" ht="15.75">
       <c r="B19" s="32" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>146</v>
@@ -5964,7 +5967,7 @@
     </row>
     <row r="20" spans="1:12" ht="15.75">
       <c r="B20" s="32" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>146</v>
@@ -5996,7 +5999,7 @@
     </row>
     <row r="21" spans="1:12" ht="15.75">
       <c r="B21" s="32" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>146</v>
@@ -6030,121 +6033,117 @@
       <c r="A22" t="s">
         <v>169</v>
       </c>
-      <c r="B22" s="32" t="s">
-        <v>638</v>
+      <c r="B22" s="39" t="s">
+        <v>640</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>639</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="J22" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="K22" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="L22" s="44" t="s">
-        <v>640</v>
+        <v>641</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="K22" s="12"/>
+      <c r="L22" s="28">
+        <v>16572</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75">
-      <c r="B23" s="32" t="s">
-        <v>641</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="J23" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="K23" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="L23" s="44" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15.75"/>
-    <row r="25" spans="1:12" ht="15.75">
-      <c r="A25" s="101" t="s">
+      <c r="B23" s="39" t="s">
+        <v>643</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="L25" s="28" t="s">
-        <v>643</v>
-      </c>
-    </row>
+      <c r="D23" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="K23" s="12"/>
+      <c r="L23" s="28">
+        <v>16572</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75">
+      <c r="B24" s="39" t="s">
+        <v>644</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="K24" s="12"/>
+      <c r="L24" s="28">
+        <v>16572</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75"/>
     <row r="26" spans="1:12" ht="15.75">
-      <c r="A26" s="1"/>
-      <c r="B26" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J26" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="K26" s="20" t="s">
-        <v>29</v>
+      <c r="A26" s="38" t="s">
+        <v>645</v>
+      </c>
+      <c r="L26" s="28" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75">
       <c r="A27" s="1"/>
       <c r="B27" s="22" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>146</v>
@@ -6177,7 +6176,7 @@
     <row r="28" spans="1:12" ht="15.75">
       <c r="A28" s="1"/>
       <c r="B28" s="22" t="s">
-        <v>457</v>
+        <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>146</v>
@@ -6185,7 +6184,7 @@
       <c r="D28" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="2" t="s">
         <v>146</v>
       </c>
       <c r="F28" s="7" t="s">
@@ -6210,15 +6209,15 @@
     <row r="29" spans="1:12" ht="15.75">
       <c r="A29" s="1"/>
       <c r="B29" s="22" t="s">
-        <v>364</v>
-      </c>
-      <c r="C29" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="8" t="s">
         <v>146</v>
       </c>
       <c r="F29" s="7" t="s">
@@ -6230,19 +6229,20 @@
       <c r="H29" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J29" s="52" t="s">
+      <c r="J29" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="K29" s="57" t="s">
+      <c r="K29" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75">
+      <c r="A30" s="1"/>
       <c r="B30" s="22" t="s">
-        <v>630</v>
+        <v>365</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>146</v>
@@ -6274,7 +6274,7 @@
     </row>
     <row r="31" spans="1:12" ht="15.75">
       <c r="B31" s="22" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>146</v>
@@ -6306,7 +6306,7 @@
     </row>
     <row r="32" spans="1:12" ht="15.75">
       <c r="B32" s="22" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>146</v>
@@ -6338,15 +6338,15 @@
     </row>
     <row r="33" spans="1:12" ht="15.75">
       <c r="B33" s="22" t="s">
-        <v>415</v>
-      </c>
-      <c r="C33" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="5" t="s">
         <v>146</v>
       </c>
       <c r="F33" s="7" t="s">
@@ -6358,19 +6358,19 @@
       <c r="H33" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="J33" s="49" t="s">
+      <c r="J33" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="K33" s="26" t="s">
-        <v>36</v>
+      <c r="K33" s="57" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.75">
       <c r="B34" s="22" t="s">
-        <v>615</v>
+        <v>417</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>146</v>
@@ -6402,7 +6402,7 @@
     </row>
     <row r="35" spans="1:12" ht="15.75">
       <c r="B35" s="22" t="s">
-        <v>636</v>
+        <v>617</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>146</v>
@@ -6434,7 +6434,7 @@
     </row>
     <row r="36" spans="1:12" ht="15.75">
       <c r="B36" s="22" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>146</v>
@@ -6465,163 +6465,158 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.75">
-      <c r="A37" t="s">
+      <c r="B37" s="22" t="s">
+        <v>639</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J37" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="K37" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75">
+      <c r="A38" t="s">
         <v>169</v>
       </c>
-      <c r="B37" s="32" t="s">
-        <v>638</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>639</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="J37" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="K37" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="L37" s="44" t="s">
+      <c r="B38" s="39" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="15.75">
-      <c r="B38" s="32" t="s">
+      <c r="C38" s="36" t="s">
         <v>641</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="J38" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="K38" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="L38" s="44" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="10" customFormat="1" ht="15.75">
-      <c r="B39" s="37"/>
-      <c r="J39" s="47"/>
+      <c r="D38" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="K38" s="12"/>
+      <c r="L38" s="28">
+        <v>16572</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.75">
+      <c r="B39" s="39" t="s">
+        <v>643</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>642</v>
+      </c>
       <c r="K39" s="12"/>
-      <c r="L39" s="18"/>
-    </row>
-    <row r="40" spans="1:12" ht="15.75">
-      <c r="A40" s="38" t="s">
-        <v>644</v>
-      </c>
-      <c r="B40" s="98"/>
+      <c r="L39" s="28">
+        <v>16572</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="10" customFormat="1" ht="15.75">
+      <c r="B40" s="37"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="18"/>
     </row>
     <row r="41" spans="1:12" ht="15.75">
-      <c r="A41" s="44"/>
-      <c r="B41" s="32" t="s">
+      <c r="A41" s="38" t="s">
+        <v>647</v>
+      </c>
+      <c r="B41" s="98"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75">
+      <c r="A42" s="44"/>
+      <c r="B42" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J41" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="K41" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L41" s="12" t="s">
+      <c r="C42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J42" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="K42" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L42" s="12" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="15.75">
-      <c r="A42" s="38"/>
-      <c r="B42" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J42" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="K42" s="20" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15.75">
       <c r="A43" s="38"/>
       <c r="B43" s="32" t="s">
-        <v>457</v>
+        <v>27</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>61</v>
@@ -6629,7 +6624,7 @@
       <c r="D43" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F43" s="7" t="s">
@@ -6654,7 +6649,7 @@
     <row r="44" spans="1:12" ht="15.75">
       <c r="A44" s="38"/>
       <c r="B44" s="32" t="s">
-        <v>364</v>
+        <v>459</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>61</v>
@@ -6662,7 +6657,7 @@
       <c r="D44" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="8" t="s">
         <v>61</v>
       </c>
       <c r="F44" s="7" t="s">
@@ -6685,9 +6680,9 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.75">
-      <c r="A45" s="44"/>
+      <c r="A45" s="38"/>
       <c r="B45" s="32" t="s">
-        <v>630</v>
+        <v>365</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>61</v>
@@ -6720,15 +6715,15 @@
     <row r="46" spans="1:12" ht="15.75">
       <c r="A46" s="44"/>
       <c r="B46" s="32" t="s">
-        <v>631</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E46" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F46" s="7" t="s">
@@ -6737,35 +6732,32 @@
       <c r="G46" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H46" s="36" t="s">
-        <v>645</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J46" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="K46" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="L46" t="s">
-        <v>646</v>
+      <c r="H46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J46" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="K46" s="20" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="15.75">
       <c r="A47" s="44"/>
       <c r="B47" s="32" t="s">
-        <v>634</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>176</v>
+        <v>633</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>61</v>
@@ -6773,58 +6765,62 @@
       <c r="G47" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H47" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="K47" s="64" t="s">
+      <c r="H47" s="36" t="s">
+        <v>648</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J47" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="K47" s="57" t="s">
         <v>29</v>
       </c>
       <c r="L47" t="s">
-        <v>196</v>
+        <v>649</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="15.75">
       <c r="A48" s="44"/>
       <c r="B48" s="32" t="s">
-        <v>415</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J48" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="K48" s="57" t="s">
-        <v>29</v>
+        <v>636</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="K48" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="L48" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15.75">
-      <c r="B49" s="22" t="s">
-        <v>615</v>
+      <c r="A49" s="44"/>
+      <c r="B49" s="32" t="s">
+        <v>417</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>61</v>
@@ -6856,7 +6852,7 @@
     </row>
     <row r="50" spans="1:12" ht="15.75">
       <c r="B50" s="22" t="s">
-        <v>636</v>
+        <v>617</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>61</v>
@@ -6888,7 +6884,7 @@
     </row>
     <row r="51" spans="1:12" ht="15.75">
       <c r="B51" s="22" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>61</v>
@@ -6919,230 +6915,226 @@
       </c>
     </row>
     <row r="52" spans="1:12" ht="15.75">
-      <c r="A52" t="s">
+      <c r="B52" s="22" t="s">
+        <v>639</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J52" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="K52" s="57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="15.75">
+      <c r="A53" t="s">
         <v>169</v>
       </c>
-      <c r="B52" s="32" t="s">
-        <v>638</v>
-      </c>
-      <c r="C52" s="36" t="s">
-        <v>639</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J52" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="K52" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="L52" s="44" t="s">
+      <c r="B53" s="39" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="15.75">
-      <c r="B53" s="32" t="s">
+      <c r="C53" s="36" t="s">
         <v>641</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J53" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="K53" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="L53" s="44" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" s="10" customFormat="1" ht="15.75">
-      <c r="B54" s="37"/>
-      <c r="J54" s="47"/>
+      <c r="D53" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="K53" s="12"/>
+      <c r="L53" s="28">
+        <v>16572</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="15.75">
+      <c r="B54" s="39" t="s">
+        <v>643</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>642</v>
+      </c>
       <c r="K54" s="12"/>
-      <c r="L54" s="18"/>
+      <c r="L54" s="28">
+        <v>16572</v>
+      </c>
     </row>
     <row r="55" spans="1:12" ht="15.75">
-      <c r="A55" s="17" t="s">
-        <v>647</v>
+      <c r="B55" s="39" t="s">
+        <v>644</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="K55" s="12"/>
+      <c r="L55" s="28">
+        <v>16569</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="15.75">
-      <c r="A56" s="17" t="s">
+      <c r="B56" s="39" t="s">
+        <v>504</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="K56" s="12"/>
+      <c r="L56" s="28">
+        <v>16571</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" s="10" customFormat="1" ht="15.75">
+      <c r="B57" s="37"/>
+      <c r="J57" s="47"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="18"/>
+    </row>
+    <row r="58" spans="1:12" ht="15.75">
+      <c r="A58" s="17" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="15.75">
+      <c r="A59" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="B59" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J56" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="K56" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L56" s="12" t="s">
+      <c r="C59" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J59" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="K59" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L59" s="12" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15.75">
-      <c r="A57" s="1"/>
-      <c r="B57" s="22" t="s">
+    <row r="60" spans="1:12" ht="15.75">
+      <c r="A60" s="1"/>
+      <c r="B60" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J57" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="K57" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="15.75">
-      <c r="A58" s="1"/>
-      <c r="B58" s="22" t="s">
-        <v>457</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J58" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="K58" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="15.75">
-      <c r="A59" s="1"/>
-      <c r="B59" s="22" t="s">
-        <v>364</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J59" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="K59" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="15.75">
-      <c r="B60" s="22" t="s">
-        <v>630</v>
-      </c>
       <c r="C60" s="2" t="s">
         <v>61</v>
       </c>
@@ -7172,16 +7164,17 @@
       </c>
     </row>
     <row r="61" spans="1:12" ht="15.75">
+      <c r="A61" s="1"/>
       <c r="B61" s="22" t="s">
-        <v>631</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E61" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E61" s="8" t="s">
         <v>61</v>
       </c>
       <c r="F61" s="7" t="s">
@@ -7190,33 +7183,31 @@
       <c r="G61" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H61" s="36" t="s">
-        <v>645</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J61" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="K61" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="L61" t="s">
-        <v>646</v>
+      <c r="H61" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J61" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="K61" s="20" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="15.75">
+      <c r="A62" s="1"/>
       <c r="B62" s="22" t="s">
-        <v>634</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E62" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F62" s="7" t="s">
@@ -7225,54 +7216,54 @@
       <c r="G62" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H62" s="36" t="s">
-        <v>645</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J62" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="K62" s="57" t="s">
+      <c r="H62" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J62" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="K62" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="15.75">
       <c r="B63" s="22" t="s">
-        <v>415</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J63" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="K63" s="57" t="s">
+        <v>632</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J63" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="K63" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="15.75">
       <c r="B64" s="22" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>61</v>
@@ -7283,14 +7274,14 @@
       <c r="E64" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F64" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>61</v>
+      <c r="F64" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H64" s="36" t="s">
+        <v>648</v>
       </c>
       <c r="I64" s="5" t="s">
         <v>61</v>
@@ -7300,6 +7291,9 @@
       </c>
       <c r="K64" s="57" t="s">
         <v>29</v>
+      </c>
+      <c r="L64" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="15.75">
@@ -7315,14 +7309,14 @@
       <c r="E65" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F65" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>61</v>
+      <c r="F65" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H65" s="36" t="s">
+        <v>648</v>
       </c>
       <c r="I65" s="5" t="s">
         <v>61</v>
@@ -7336,7 +7330,7 @@
     </row>
     <row r="66" spans="1:12" ht="15.75">
       <c r="B66" s="22" t="s">
-        <v>637</v>
+        <v>417</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>61</v>
@@ -7367,93 +7361,186 @@
       </c>
     </row>
     <row r="67" spans="1:12" ht="15.75">
-      <c r="A67" t="s">
+      <c r="B67" s="22" t="s">
+        <v>617</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J67" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="K67" s="57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="15.75">
+      <c r="B68" s="22" t="s">
+        <v>638</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J68" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="K68" s="57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="15.75">
+      <c r="B69" s="22" t="s">
+        <v>639</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J69" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="K69" s="57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="15.75">
+      <c r="A70" t="s">
         <v>169</v>
       </c>
-      <c r="B67" s="32" t="s">
-        <v>638</v>
-      </c>
-      <c r="C67" s="36" t="s">
-        <v>639</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J67" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="K67" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="L67" s="44" t="s">
+      <c r="B70" s="32" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" ht="15.75">
-      <c r="B68" s="32" t="s">
+      <c r="C70" s="36" t="s">
         <v>641</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I68" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J68" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="K68" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="L68" s="44" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="15.75"/>
-    <row r="70" spans="1:12" ht="15.75"/>
-    <row r="76" spans="1:12" ht="15.75"/>
-    <row r="77" spans="1:12" ht="15.75"/>
-    <row r="78" spans="1:12" ht="15.75"/>
+      <c r="D70" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J70" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="K70" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="L70" s="44" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="15.75">
+      <c r="B71" s="32" t="s">
+        <v>643</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J71" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="K71" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="L71" s="44" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="15.75"/>
+    <row r="73" spans="1:12" ht="15.75"/>
     <row r="79" spans="1:12" ht="15.75"/>
     <row r="80" spans="1:12" ht="15.75"/>
     <row r="81" ht="15.75"/>
     <row r="82" ht="15.75"/>
     <row r="83" ht="15.75"/>
+    <row r="84" ht="15.75"/>
     <row r="85" ht="15.75"/>
-    <row r="98" ht="15.75"/>
-    <row r="103" ht="15.75"/>
-    <row r="104" ht="15.75"/>
-    <row r="105" ht="15.75"/>
+    <row r="86" ht="15.75"/>
+    <row r="88" ht="15.75"/>
+    <row r="101" ht="15.75"/>
     <row r="106" ht="15.75"/>
     <row r="107" ht="15.75"/>
     <row r="108" ht="15.75"/>
@@ -7464,10 +7551,10 @@
     <row r="113" ht="15.75"/>
     <row r="114" ht="15.75"/>
     <row r="115" ht="15.75"/>
-    <row r="128" ht="15.75"/>
-    <row r="133" ht="15.75"/>
-    <row r="134" ht="15.75"/>
-    <row r="135" ht="15.75"/>
+    <row r="116" ht="15.75"/>
+    <row r="117" ht="15.75"/>
+    <row r="118" ht="15.75"/>
+    <row r="131" ht="15.75"/>
     <row r="136" ht="15.75"/>
     <row r="137" ht="15.75"/>
     <row r="138" ht="15.75"/>
@@ -7476,11 +7563,11 @@
     <row r="141" ht="15.75"/>
     <row r="142" ht="15.75"/>
     <row r="143" ht="15.75"/>
+    <row r="144" ht="15.75"/>
     <row r="145" ht="15.75"/>
-    <row r="158" ht="15.75"/>
-    <row r="163" ht="15.75"/>
-    <row r="164" ht="15.75"/>
-    <row r="165" ht="15.75"/>
+    <row r="146" ht="15.75"/>
+    <row r="148" ht="15.75"/>
+    <row r="161" ht="15.75"/>
     <row r="166" ht="15.75"/>
     <row r="167" ht="15.75"/>
     <row r="168" ht="15.75"/>
@@ -7489,52 +7576,55 @@
     <row r="171" ht="15.75"/>
     <row r="172" ht="15.75"/>
     <row r="173" ht="15.75"/>
+    <row r="174" ht="15.75"/>
     <row r="175" ht="15.75"/>
+    <row r="176" ht="15.75"/>
     <row r="178" ht="15.75"/>
-    <row r="179" ht="15.75"/>
     <row r="181" ht="15.75"/>
-    <row r="186" ht="15.75"/>
-    <row r="191" ht="15.75"/>
-    <row r="192" ht="15.75"/>
+    <row r="182" ht="15.75"/>
+    <row r="184" ht="15.75"/>
+    <row r="189" ht="15.75"/>
     <row r="194" ht="15.75"/>
     <row r="195" ht="15.75"/>
     <row r="197" ht="15.75"/>
-    <row r="205" ht="15.75"/>
-    <row r="206" ht="15.75"/>
-    <row r="207" ht="15.75"/>
+    <row r="198" ht="15.75"/>
+    <row r="200" ht="15.75"/>
     <row r="208" ht="15.75"/>
     <row r="209" ht="15.75"/>
     <row r="210" ht="15.75"/>
+    <row r="211" ht="15.75"/>
     <row r="212" ht="15.75"/>
     <row r="213" ht="15.75"/>
-    <row r="214" ht="15.75"/>
     <row r="215" ht="15.75"/>
     <row r="216" ht="15.75"/>
-    <row r="224" ht="15.75"/>
-    <row r="225" ht="15.75"/>
-    <row r="226" ht="15.75"/>
+    <row r="217" ht="15.75"/>
+    <row r="218" ht="15.75"/>
+    <row r="219" ht="15.75"/>
     <row r="227" ht="15.75"/>
     <row r="228" ht="15.75"/>
     <row r="229" ht="15.75"/>
     <row r="230" ht="15.75"/>
     <row r="231" ht="15.75"/>
-    <row r="239" ht="15.75"/>
-    <row r="240" ht="15.75"/>
-    <row r="241" ht="15.75"/>
+    <row r="232" ht="15.75"/>
+    <row r="233" ht="15.75"/>
+    <row r="234" ht="15.75"/>
     <row r="242" ht="15.75"/>
     <row r="243" ht="15.75"/>
     <row r="244" ht="15.75"/>
     <row r="245" ht="15.75"/>
     <row r="246" ht="15.75"/>
-    <row r="254" ht="15.75"/>
-    <row r="255" ht="15.75"/>
+    <row r="247" ht="15.75"/>
+    <row r="248" ht="15.75"/>
+    <row r="249" ht="15.75"/>
+    <row r="257" ht="15.75"/>
     <row r="258" ht="15.75"/>
-    <row r="268" ht="15.75"/>
-    <row r="275" ht="15.75"/>
-    <row r="279" ht="15.75"/>
-    <row r="488" ht="15.75"/>
-    <row r="697" ht="15.75"/>
-    <row r="804" ht="15.75"/>
+    <row r="261" ht="15.75"/>
+    <row r="271" ht="15.75"/>
+    <row r="278" ht="15.75"/>
+    <row r="282" ht="15.75"/>
+    <row r="491" ht="15.75"/>
+    <row r="700" ht="15.75"/>
+    <row r="807" ht="15.75"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7708,15 +7798,15 @@
     </row>
     <row r="10" spans="1:12" ht="15.75">
       <c r="A10" s="1" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="L10" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75">
       <c r="B11" s="16" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>28</v>
@@ -7749,7 +7839,7 @@
     </row>
     <row r="12" spans="1:12" ht="15.75">
       <c r="B12" s="16" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>28</v>
@@ -7781,7 +7871,7 @@
     </row>
     <row r="13" spans="1:12" ht="15.75">
       <c r="B13" s="16" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>28</v>
@@ -7813,7 +7903,7 @@
     </row>
     <row r="14" spans="1:12" ht="15.75">
       <c r="B14" s="16" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>28</v>
@@ -7845,7 +7935,7 @@
     </row>
     <row r="15" spans="1:12" ht="15.75">
       <c r="B15" s="16" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>28</v>
@@ -7877,7 +7967,7 @@
     </row>
     <row r="16" spans="1:12" ht="15.75">
       <c r="B16" s="32" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>208</v>
@@ -7905,12 +7995,12 @@
       </c>
       <c r="K16" s="65"/>
       <c r="L16" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="15.75">
       <c r="B17" s="93" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>208</v>
@@ -7939,7 +8029,7 @@
     </row>
     <row r="18" spans="2:12" ht="15.75">
       <c r="B18" s="93" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>208</v>
@@ -7968,7 +8058,7 @@
     </row>
     <row r="19" spans="2:12" ht="15.75">
       <c r="B19" s="93" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>208</v>
@@ -7997,7 +8087,7 @@
     </row>
     <row r="20" spans="2:12" ht="15.75">
       <c r="B20" s="93" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>208</v>
@@ -8025,7 +8115,7 @@
       </c>
     </row>
     <row r="21" spans="2:12" ht="15.75">
-      <c r="B21" s="102" t="s">
+      <c r="B21" s="101" t="s">
         <v>120</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -8223,7 +8313,7 @@
     </row>
     <row r="5" spans="1:12" ht="15.75">
       <c r="A5" s="25" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B5" s="13"/>
       <c r="D5" s="5"/>
@@ -8260,7 +8350,7 @@
     </row>
     <row r="8" spans="1:12" ht="15.75">
       <c r="A8" s="18" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="15"/>
@@ -9118,12 +9208,12 @@
     </row>
     <row r="39" spans="1:12" ht="15.75">
       <c r="A39" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15.75">
       <c r="B40" s="16" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>28</v>
@@ -9155,7 +9245,7 @@
     </row>
     <row r="41" spans="1:12" ht="15.75">
       <c r="B41" s="16" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>28</v>
@@ -9187,7 +9277,7 @@
     </row>
     <row r="42" spans="1:12" ht="15.75">
       <c r="B42" s="16" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>28</v>
@@ -9219,7 +9309,7 @@
     </row>
     <row r="43" spans="1:12" ht="15.75">
       <c r="B43" s="16" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>28</v>
@@ -9251,7 +9341,7 @@
     </row>
     <row r="44" spans="1:12" ht="15.75">
       <c r="B44" s="16" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>28</v>
@@ -9283,7 +9373,7 @@
     </row>
     <row r="45" spans="1:12" ht="15.75">
       <c r="B45" s="16" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>28</v>
@@ -9318,7 +9408,7 @@
         <v>169</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>28</v>
@@ -9345,10 +9435,10 @@
         <v>28</v>
       </c>
       <c r="K46" s="26" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="L46" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="15.75">
@@ -9356,44 +9446,44 @@
         <v>169</v>
       </c>
       <c r="B47" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J47" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="K47" s="26" t="s">
         <v>521</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J47" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="K47" s="26" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15.75">
       <c r="A49" s="1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.75">
       <c r="B50" s="16" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>28</v>
@@ -9425,7 +9515,7 @@
     </row>
     <row r="51" spans="1:11" ht="15.75">
       <c r="B51" s="16" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>28</v>
@@ -9457,7 +9547,7 @@
     </row>
     <row r="52" spans="1:11" ht="15.75">
       <c r="B52" s="16" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>28</v>
@@ -9489,7 +9579,7 @@
     </row>
     <row r="53" spans="1:11" ht="15.75">
       <c r="B53" s="16" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>28</v>
@@ -9521,7 +9611,7 @@
     </row>
     <row r="54" spans="1:11" ht="15.75">
       <c r="B54" s="16" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>28</v>
@@ -9553,7 +9643,7 @@
     </row>
     <row r="55" spans="1:11" ht="15.75">
       <c r="B55" s="16" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>28</v>
@@ -9585,7 +9675,7 @@
     </row>
     <row r="56" spans="1:11" ht="15.75">
       <c r="B56" s="16" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>28</v>
@@ -9617,7 +9707,7 @@
     </row>
     <row r="57" spans="1:11" ht="15.75">
       <c r="B57" s="16" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>28</v>
@@ -9649,12 +9739,12 @@
     </row>
     <row r="59" spans="1:11" ht="15.75">
       <c r="A59" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="15.75">
       <c r="B60" s="16" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>28</v>
@@ -9718,7 +9808,7 @@
     </row>
     <row r="62" spans="1:11" ht="15.75">
       <c r="B62" s="16" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>28</v>
@@ -9750,7 +9840,7 @@
     </row>
     <row r="63" spans="1:11" ht="15.75">
       <c r="B63" s="16" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>28</v>
@@ -9782,7 +9872,7 @@
     </row>
     <row r="64" spans="1:11" ht="15.75">
       <c r="B64" s="16" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>28</v>
@@ -9814,7 +9904,7 @@
     </row>
     <row r="65" spans="1:12" ht="15.75">
       <c r="B65" s="16" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>28</v>
@@ -9846,7 +9936,7 @@
     </row>
     <row r="66" spans="1:12" ht="15.75">
       <c r="B66" s="16" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>28</v>
@@ -9876,12 +9966,12 @@
         <v>29</v>
       </c>
       <c r="L66" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="15.75">
       <c r="B67" s="16" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>28</v>
@@ -9893,7 +9983,7 @@
         <v>28</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>28</v>
@@ -9911,12 +10001,12 @@
         <v>29</v>
       </c>
       <c r="L67" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="15.75">
       <c r="B68" s="16" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>28</v>
@@ -9934,7 +10024,7 @@
         <v>28</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>28</v>
@@ -9948,7 +10038,7 @@
     </row>
     <row r="69" spans="1:12" ht="15.75">
       <c r="B69" s="16" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>28</v>
@@ -9980,7 +10070,7 @@
     </row>
     <row r="70" spans="1:12" ht="15.75">
       <c r="B70" s="16" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>28</v>
@@ -10012,7 +10102,7 @@
     </row>
     <row r="71" spans="1:12" ht="15.75">
       <c r="B71" s="16" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>28</v>
@@ -10042,12 +10132,12 @@
         <v>29</v>
       </c>
       <c r="L71" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="15.75">
       <c r="B72" s="32" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>146</v>
@@ -10079,7 +10169,7 @@
     </row>
     <row r="73" spans="1:12" ht="15.75">
       <c r="B73" s="32" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>146</v>
@@ -10112,7 +10202,7 @@
     <row r="74" spans="1:12" ht="15.75">
       <c r="A74" s="17"/>
       <c r="B74" s="16" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>117</v>
@@ -10145,7 +10235,7 @@
     <row r="75" spans="1:12" ht="15.75">
       <c r="A75" s="17"/>
       <c r="B75" s="16" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>117</v>
@@ -10178,7 +10268,7 @@
     <row r="76" spans="1:12" ht="15.75">
       <c r="A76" s="17"/>
       <c r="B76" s="16" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>117</v>
@@ -10210,7 +10300,7 @@
     </row>
     <row r="77" spans="1:12" ht="15.75">
       <c r="B77" s="16" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>28</v>
@@ -10242,13 +10332,13 @@
     </row>
     <row r="79" spans="1:12" ht="15.75">
       <c r="A79" s="38" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="15.75">
       <c r="A80" s="17"/>
       <c r="B80" s="16" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>61</v>
@@ -10282,7 +10372,7 @@
     <row r="81" spans="1:12" ht="15.75">
       <c r="A81" s="17"/>
       <c r="B81" s="16" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>61</v>
@@ -10312,13 +10402,13 @@
         <v>29</v>
       </c>
       <c r="L81" s="28" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="15.75">
       <c r="A82" s="17"/>
       <c r="B82" s="16" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>61</v>
@@ -10351,7 +10441,7 @@
     <row r="83" spans="1:12" ht="15.75">
       <c r="A83" s="17"/>
       <c r="B83" s="16" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>61</v>
@@ -10384,7 +10474,7 @@
     <row r="84" spans="1:12" ht="15.75">
       <c r="A84" s="17"/>
       <c r="B84" s="16" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>61</v>
@@ -10416,12 +10506,12 @@
     </row>
     <row r="86" spans="1:12" ht="15.75">
       <c r="A86" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="15.75">
       <c r="B87" s="16" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>28</v>
@@ -10453,7 +10543,7 @@
     </row>
     <row r="88" spans="1:12" ht="15.75">
       <c r="B88" s="16" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>28</v>
@@ -10485,7 +10575,7 @@
     </row>
     <row r="89" spans="1:12" ht="15.75">
       <c r="B89" s="16" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>28</v>
@@ -10517,7 +10607,7 @@
     </row>
     <row r="90" spans="1:12" ht="15.75">
       <c r="B90" s="16" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>28</v>
@@ -10544,7 +10634,7 @@
         <v>28</v>
       </c>
       <c r="K90" s="26" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="15.75">
@@ -10581,7 +10671,7 @@
     </row>
     <row r="92" spans="1:12" ht="15.75">
       <c r="B92" s="32" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>61</v>
@@ -10613,7 +10703,7 @@
     </row>
     <row r="93" spans="1:12" ht="15.75">
       <c r="B93" s="32" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>61</v>
@@ -10645,12 +10735,12 @@
     </row>
     <row r="95" spans="1:12" ht="15.75">
       <c r="A95" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="15.75">
       <c r="B96" s="16" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>28</v>
@@ -10677,12 +10767,12 @@
         <v>28</v>
       </c>
       <c r="K96" s="26" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="15.75">
       <c r="B97" s="16" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>28</v>
@@ -10709,7 +10799,7 @@
         <v>28</v>
       </c>
       <c r="K97" s="26" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="15.75">
@@ -10742,7 +10832,7 @@
         <v>28</v>
       </c>
       <c r="K98" s="26" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L98" s="10" t="s">
         <v>196</v>
@@ -10777,12 +10867,12 @@
         <v>28</v>
       </c>
       <c r="K99" s="26" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="15.75">
       <c r="B100" s="16" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>28</v>
@@ -10809,12 +10899,12 @@
         <v>28</v>
       </c>
       <c r="K100" s="26" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="15.75">
       <c r="B101" s="16" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>28</v>
@@ -10841,12 +10931,12 @@
         <v>28</v>
       </c>
       <c r="K101" s="26" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="15.75">
       <c r="B102" s="16" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>28</v>
@@ -10873,12 +10963,12 @@
         <v>28</v>
       </c>
       <c r="K102" s="26" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="15.75">
       <c r="B103" s="16" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>28</v>
@@ -10913,7 +11003,7 @@
     </row>
     <row r="104" spans="1:12" ht="15.75">
       <c r="B104" s="16" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>28</v>
@@ -10940,12 +11030,12 @@
         <v>28</v>
       </c>
       <c r="K104" s="26" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="15.75">
       <c r="B105" s="16" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>28</v>
@@ -10980,15 +11070,15 @@
     </row>
     <row r="107" spans="1:12" ht="15.75">
       <c r="A107" s="1" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="L107" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="15.75">
       <c r="B108" s="16" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>28</v>
@@ -11021,7 +11111,7 @@
     </row>
     <row r="109" spans="1:12" ht="15.75">
       <c r="B109" s="16" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>28</v>
@@ -11053,7 +11143,7 @@
     </row>
     <row r="110" spans="1:12" ht="15.75">
       <c r="B110" s="16" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>28</v>
@@ -11085,7 +11175,7 @@
     </row>
     <row r="111" spans="1:12" ht="15.75">
       <c r="B111" s="16" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>28</v>
@@ -11117,7 +11207,7 @@
     </row>
     <row r="112" spans="1:12" ht="15.75">
       <c r="B112" s="16" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>28</v>
@@ -11149,7 +11239,7 @@
     </row>
     <row r="114" spans="1:12" ht="15.75">
       <c r="A114" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="15.75">
@@ -11188,10 +11278,10 @@
     <row r="116" spans="1:12" ht="15.75">
       <c r="A116" s="1"/>
       <c r="B116" s="16" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>269</v>
@@ -11221,10 +11311,10 @@
     <row r="117" spans="1:12" ht="15.75">
       <c r="A117" s="1"/>
       <c r="B117" s="16" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>269</v>
@@ -11254,7 +11344,7 @@
     <row r="118" spans="1:12" ht="15.75">
       <c r="A118" s="1"/>
       <c r="B118" s="16" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>269</v>
@@ -11284,13 +11374,13 @@
         <v>29</v>
       </c>
       <c r="L118" s="12" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="15.75">
       <c r="A119" s="1"/>
       <c r="B119" s="16" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>269</v>
@@ -11323,7 +11413,7 @@
     <row r="120" spans="1:12" ht="15.75">
       <c r="A120" s="1"/>
       <c r="B120" s="16" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>269</v>
@@ -11341,7 +11431,7 @@
         <v>269</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="I120" s="2" t="s">
         <v>269</v>
@@ -11356,7 +11446,7 @@
     <row r="121" spans="1:12" ht="15.75">
       <c r="A121" s="1"/>
       <c r="B121" s="16" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>269</v>
@@ -11389,7 +11479,7 @@
     <row r="122" spans="1:12" ht="15.75">
       <c r="A122" s="1"/>
       <c r="B122" s="16" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>269</v>
@@ -11422,7 +11512,7 @@
     <row r="123" spans="1:12" ht="15.75">
       <c r="A123" s="1"/>
       <c r="B123" s="16" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>269</v>
@@ -11455,7 +11545,7 @@
     <row r="124" spans="1:12" ht="15.75">
       <c r="A124" s="1"/>
       <c r="B124" s="16" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>269</v>
@@ -11488,7 +11578,7 @@
     <row r="125" spans="1:12" ht="15.75">
       <c r="A125" s="1"/>
       <c r="B125" s="16" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>269</v>
@@ -11521,7 +11611,7 @@
     <row r="126" spans="1:12" ht="15.75">
       <c r="A126" s="1"/>
       <c r="B126" s="16" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>269</v>
@@ -11553,7 +11643,7 @@
     </row>
     <row r="128" spans="1:12" ht="15.75">
       <c r="A128" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="15.75">
@@ -11590,7 +11680,7 @@
     </row>
     <row r="130" spans="1:12" ht="15.75">
       <c r="B130" s="16" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>28</v>
@@ -11622,7 +11712,7 @@
     </row>
     <row r="131" spans="1:12" ht="15.75">
       <c r="B131" s="16" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>28</v>
@@ -11654,7 +11744,7 @@
     </row>
     <row r="132" spans="1:12" ht="15.75">
       <c r="B132" s="16" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>28</v>
@@ -11686,7 +11776,7 @@
     </row>
     <row r="133" spans="1:12" ht="15.75">
       <c r="B133" s="16" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>28</v>
@@ -11718,7 +11808,7 @@
     </row>
     <row r="134" spans="1:12" ht="15.75">
       <c r="B134" s="16" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>28</v>
@@ -11750,7 +11840,7 @@
     </row>
     <row r="135" spans="1:12" ht="15.75">
       <c r="B135" s="16" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>28</v>
@@ -11782,10 +11872,10 @@
     </row>
     <row r="136" spans="1:12" ht="15.75">
       <c r="B136" s="16" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>28</v>
@@ -11814,7 +11904,7 @@
     </row>
     <row r="137" spans="1:12" ht="15.75">
       <c r="B137" s="16" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>28</v>
@@ -11844,12 +11934,12 @@
         <v>134</v>
       </c>
       <c r="L137" s="12" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="138" spans="1:12" ht="15.75">
       <c r="B138" s="16" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>28</v>
@@ -11881,7 +11971,7 @@
     </row>
     <row r="139" spans="1:12" ht="15.75">
       <c r="B139" s="22" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>55</v>
@@ -11913,7 +12003,7 @@
     </row>
     <row r="141" spans="1:12" ht="15.75">
       <c r="A141" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="15.75">
@@ -11950,7 +12040,7 @@
     </row>
     <row r="143" spans="1:12" ht="15.75">
       <c r="B143" s="16" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>269</v>
@@ -11982,7 +12072,7 @@
     </row>
     <row r="144" spans="1:12" ht="15.75">
       <c r="B144" s="16" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>269</v>
@@ -12000,7 +12090,7 @@
         <v>269</v>
       </c>
       <c r="H144" s="36" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="I144" s="2" t="s">
         <v>269</v>
@@ -12014,7 +12104,7 @@
     </row>
     <row r="145" spans="1:11" ht="15.75">
       <c r="B145" s="16" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>269</v>
@@ -12046,7 +12136,7 @@
     </row>
     <row r="146" spans="1:11" ht="15.75">
       <c r="B146" s="16" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>269</v>
@@ -12078,7 +12168,7 @@
     </row>
     <row r="147" spans="1:11" ht="15.75">
       <c r="B147" s="16" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>269</v>
@@ -12110,7 +12200,7 @@
     </row>
     <row r="148" spans="1:11" ht="15.75">
       <c r="B148" s="16" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>269</v>
@@ -12133,7 +12223,7 @@
     </row>
     <row r="149" spans="1:11" ht="15.75">
       <c r="B149" s="16" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>269</v>
@@ -12165,7 +12255,7 @@
     </row>
     <row r="150" spans="1:11" ht="15.75">
       <c r="B150" s="16" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>269</v>
@@ -12197,12 +12287,12 @@
     </row>
     <row r="152" spans="1:11" ht="15.75">
       <c r="A152" s="1" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="15.75">
       <c r="B153" s="16" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>28</v>
@@ -12234,7 +12324,7 @@
     </row>
     <row r="154" spans="1:11" ht="15.75">
       <c r="B154" s="16" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>28</v>
@@ -12266,7 +12356,7 @@
     </row>
     <row r="155" spans="1:11" ht="15.75">
       <c r="B155" s="16" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>28</v>
@@ -12298,7 +12388,7 @@
     </row>
     <row r="156" spans="1:11" ht="15.75">
       <c r="B156" s="16" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>28</v>
@@ -12330,12 +12420,12 @@
     </row>
     <row r="158" spans="1:11" ht="15.75">
       <c r="A158" s="1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="15.75">
       <c r="B159" s="16" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>28</v>
@@ -12367,7 +12457,7 @@
     </row>
     <row r="160" spans="1:11" ht="15.75">
       <c r="B160" s="16" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>28</v>
@@ -12399,7 +12489,7 @@
     </row>
     <row r="161" spans="1:12" ht="15.75">
       <c r="B161" s="16" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>28</v>
@@ -12431,7 +12521,7 @@
     </row>
     <row r="162" spans="1:12" ht="15.75">
       <c r="B162" s="16" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>28</v>
@@ -12440,7 +12530,7 @@
         <v>28</v>
       </c>
       <c r="E162" s="36" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>28</v>
@@ -12464,7 +12554,7 @@
     </row>
     <row r="163" spans="1:12" ht="15.75">
       <c r="B163" s="16" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>28</v>
@@ -12497,7 +12587,7 @@
     </row>
     <row r="164" spans="1:12" ht="15.75">
       <c r="B164" s="16" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>28</v>
@@ -12530,7 +12620,7 @@
     </row>
     <row r="165" spans="1:12" ht="15.75">
       <c r="B165" s="16" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>28</v>
@@ -12562,7 +12652,7 @@
     </row>
     <row r="166" spans="1:12" ht="15.75">
       <c r="B166" s="16" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>28</v>
@@ -12594,7 +12684,7 @@
     </row>
     <row r="167" spans="1:12" ht="15.75">
       <c r="B167" s="16" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>28</v>
@@ -12626,7 +12716,7 @@
     </row>
     <row r="168" spans="1:12" ht="15.75">
       <c r="B168" s="16" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>28</v>
@@ -12887,7 +12977,7 @@
     </row>
     <row r="178" spans="1:12" ht="15.75">
       <c r="B178" s="16" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>28</v>
@@ -14620,7 +14710,7 @@
     </row>
     <row r="233" spans="1:12" ht="15.75">
       <c r="B233" s="16" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>28</v>
@@ -16307,7 +16397,7 @@
     </row>
     <row r="288" spans="1:14" ht="15.75">
       <c r="B288" s="16" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>189</v>
@@ -18006,7 +18096,7 @@
     </row>
     <row r="343" spans="1:12" ht="15.75">
       <c r="B343" s="16" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>55</v>
@@ -19549,7 +19639,7 @@
     </row>
     <row r="398" spans="1:12" ht="15.75">
       <c r="B398" s="16" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>61</v>
@@ -20670,7 +20760,7 @@
     <row r="444" spans="1:12" ht="15.75"/>
     <row r="445" spans="1:12" ht="15.75">
       <c r="A445" s="17" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="446" spans="1:12" ht="15.75">
@@ -20735,7 +20825,7 @@
     </row>
     <row r="448" spans="1:12" ht="15.75">
       <c r="B448" s="16" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>92</v>
@@ -20765,7 +20855,7 @@
     </row>
     <row r="449" spans="1:11" ht="15.75">
       <c r="B449" s="16" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>92</v>
@@ -20783,7 +20873,7 @@
         <v>92</v>
       </c>
       <c r="H449" s="4" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="I449" s="2" t="s">
         <v>92</v>
@@ -20795,7 +20885,7 @@
     </row>
     <row r="450" spans="1:11" ht="15.75">
       <c r="B450" s="16" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>92</v>
@@ -20826,13 +20916,13 @@
     <row r="451" spans="1:11" ht="15.75"/>
     <row r="452" spans="1:11" ht="15.75">
       <c r="A452" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="453" spans="1:11" ht="15.75">
       <c r="A453" s="17"/>
       <c r="B453" s="16" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>255</v>
@@ -20865,7 +20955,7 @@
     <row r="454" spans="1:11" ht="15.75">
       <c r="A454" s="17"/>
       <c r="B454" s="16" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>255</v>
@@ -20874,7 +20964,7 @@
         <v>255</v>
       </c>
       <c r="E454" s="3" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F454" s="7" t="s">
         <v>255</v>
@@ -20886,19 +20976,19 @@
         <v>255</v>
       </c>
       <c r="I454" s="3" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="J454" s="54" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="K454" s="58" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="455" spans="1:11" ht="15.75">
       <c r="A455" s="17"/>
       <c r="B455" s="16" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>255</v>
@@ -20907,7 +20997,7 @@
         <v>255</v>
       </c>
       <c r="E455" s="3" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F455" s="7" t="s">
         <v>255</v>
@@ -20919,10 +21009,10 @@
         <v>255</v>
       </c>
       <c r="I455" s="3" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="J455" s="54" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="K455" s="20" t="s">
         <v>29</v>
@@ -20931,7 +21021,7 @@
     <row r="456" spans="1:11" ht="15.75">
       <c r="A456" s="17"/>
       <c r="B456" s="16" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>255</v>
@@ -20940,7 +21030,7 @@
         <v>255</v>
       </c>
       <c r="E456" s="3" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F456" s="7" t="s">
         <v>255</v>
@@ -20952,10 +21042,10 @@
         <v>255</v>
       </c>
       <c r="I456" s="3" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="J456" s="54" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="K456" s="20" t="s">
         <v>29</v>
@@ -20964,7 +21054,7 @@
     <row r="457" spans="1:11" ht="15.75">
       <c r="A457" s="17"/>
       <c r="B457" s="32" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>146</v>
@@ -20985,23 +21075,23 @@
         <v>146</v>
       </c>
       <c r="I457" s="36" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="J457" s="49" t="s">
         <v>146</v>
       </c>
       <c r="K457" s="58" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="459" spans="1:11" ht="15.75">
       <c r="A459" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="460" spans="1:11" ht="15.75">
       <c r="B460" s="16" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>28</v>
@@ -21013,7 +21103,7 @@
         <v>28</v>
       </c>
       <c r="F460" s="36" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G460" s="7" t="s">
         <v>28</v>
@@ -21034,19 +21124,19 @@
     <row r="461" spans="1:11" ht="15.75">
       <c r="A461" s="1"/>
       <c r="B461" s="16" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C461" s="36" t="s">
+        <v>547</v>
+      </c>
+      <c r="D461" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E461" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F461" s="36" t="s">
         <v>545</v>
-      </c>
-      <c r="D461" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E461" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F461" s="36" t="s">
-        <v>543</v>
       </c>
       <c r="G461" s="7" t="s">
         <v>28</v>
@@ -21078,7 +21168,7 @@
         <v>28</v>
       </c>
       <c r="F462" s="36" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G462" s="7" t="s">
         <v>28</v>
@@ -21111,7 +21201,7 @@
         <v>28</v>
       </c>
       <c r="F463" s="36" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G463" s="7" t="s">
         <v>28</v>
@@ -21143,7 +21233,7 @@
         <v>28</v>
       </c>
       <c r="F464" s="36" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G464" s="7" t="s">
         <v>28</v>
@@ -21164,7 +21254,7 @@
     <row r="465" spans="1:11" ht="15.75">
       <c r="A465" s="1"/>
       <c r="B465" s="16" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>28</v>
@@ -21176,7 +21266,7 @@
         <v>28</v>
       </c>
       <c r="F465" s="36" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G465" s="7" t="s">
         <v>28</v>
@@ -21196,7 +21286,7 @@
     </row>
     <row r="466" spans="1:11" ht="15.75">
       <c r="B466" s="16" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>28</v>
@@ -21208,7 +21298,7 @@
         <v>28</v>
       </c>
       <c r="F466" s="36" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G466" s="7" t="s">
         <v>28</v>
@@ -21238,10 +21328,10 @@
         <v>28</v>
       </c>
       <c r="E467" s="3" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F467" s="36" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G467" s="7" t="s">
         <v>28</v>
@@ -21261,19 +21351,19 @@
     </row>
     <row r="468" spans="1:11" ht="15.75">
       <c r="B468" s="16" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C468" s="36" t="s">
+        <v>547</v>
+      </c>
+      <c r="D468" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E468" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="F468" s="36" t="s">
         <v>545</v>
-      </c>
-      <c r="D468" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E468" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="F468" s="36" t="s">
-        <v>543</v>
       </c>
       <c r="G468" s="7" t="s">
         <v>28</v>
@@ -21306,7 +21396,7 @@
         <v>28</v>
       </c>
       <c r="F469" s="36" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G469" s="7" t="s">
         <v>28</v>
@@ -21326,7 +21416,7 @@
     </row>
     <row r="470" spans="1:11" ht="15.75">
       <c r="B470" s="16" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>28</v>
@@ -21338,7 +21428,7 @@
         <v>28</v>
       </c>
       <c r="F470" s="36" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G470" s="7" t="s">
         <v>28</v>
@@ -21358,7 +21448,7 @@
     </row>
     <row r="471" spans="1:11" ht="15.75">
       <c r="B471" s="16" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>28</v>
@@ -21390,7 +21480,7 @@
     </row>
     <row r="472" spans="1:11" ht="15.75">
       <c r="B472" s="16" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>28</v>
@@ -21422,7 +21512,7 @@
     </row>
     <row r="473" spans="1:11" ht="15.75">
       <c r="B473" s="16" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>28</v>
@@ -21434,7 +21524,7 @@
         <v>28</v>
       </c>
       <c r="F473" s="36" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G473" s="7" t="s">
         <v>28</v>
@@ -21449,12 +21539,12 @@
         <v>28</v>
       </c>
       <c r="K473" s="58" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="474" spans="1:11" ht="15.75">
       <c r="B474" s="16" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>28</v>
@@ -21466,7 +21556,7 @@
         <v>28</v>
       </c>
       <c r="F474" s="36" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G474" s="7" t="s">
         <v>28</v>
@@ -21481,7 +21571,7 @@
         <v>28</v>
       </c>
       <c r="K474" s="58" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="475" spans="1:11" ht="15.75">
@@ -21498,7 +21588,7 @@
         <v>28</v>
       </c>
       <c r="F475" s="36" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G475" s="7" t="s">
         <v>28</v>
@@ -21530,7 +21620,7 @@
         <v>28</v>
       </c>
       <c r="F476" s="36" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G476" s="7" t="s">
         <v>28</v>
@@ -21545,44 +21635,44 @@
         <v>28</v>
       </c>
       <c r="K476" s="58" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="477" spans="1:11" ht="15.75">
       <c r="B477" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D477" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E477" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F477" s="36" t="s">
+        <v>545</v>
+      </c>
+      <c r="G477" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H477" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I477" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J477" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="K477" s="58" t="s">
         <v>556</v>
-      </c>
-      <c r="C477" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D477" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E477" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F477" s="36" t="s">
-        <v>543</v>
-      </c>
-      <c r="G477" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H477" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I477" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J477" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="K477" s="58" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="478" spans="1:11" ht="15.75">
       <c r="B478" s="16" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C478" s="2" t="s">
         <v>28</v>
@@ -21594,7 +21684,7 @@
         <v>28</v>
       </c>
       <c r="F478" s="36" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G478" s="7" t="s">
         <v>28</v>
@@ -21609,12 +21699,12 @@
         <v>28</v>
       </c>
       <c r="K478" s="58" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="479" spans="1:11" ht="15.75">
       <c r="B479" s="16" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C479" s="2" t="s">
         <v>28</v>
@@ -21626,7 +21716,7 @@
         <v>28</v>
       </c>
       <c r="F479" s="36" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G479" s="7" t="s">
         <v>28</v>
@@ -21641,12 +21731,12 @@
         <v>28</v>
       </c>
       <c r="K479" s="58" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="480" spans="1:11" ht="15.75">
       <c r="B480" s="16" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C480" s="2" t="s">
         <v>28</v>
@@ -21658,7 +21748,7 @@
         <v>28</v>
       </c>
       <c r="F480" s="36" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G480" s="7" t="s">
         <v>28</v>
@@ -21673,12 +21763,12 @@
         <v>28</v>
       </c>
       <c r="K480" s="58" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="481" spans="1:11" ht="15.75">
       <c r="B481" s="16" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C481" s="2" t="s">
         <v>28</v>
@@ -21690,7 +21780,7 @@
         <v>28</v>
       </c>
       <c r="F481" s="36" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G481" s="7" t="s">
         <v>28</v>
@@ -21705,12 +21795,12 @@
         <v>28</v>
       </c>
       <c r="K481" s="58" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="482" spans="1:11" ht="15.75">
       <c r="B482" s="16" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C482" s="2" t="s">
         <v>28</v>
@@ -21722,7 +21812,7 @@
         <v>28</v>
       </c>
       <c r="F482" s="36" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G482" s="7" t="s">
         <v>28</v>
@@ -21737,12 +21827,12 @@
         <v>28</v>
       </c>
       <c r="K482" s="58" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="483" spans="1:11" ht="15.75">
       <c r="B483" s="16" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C483" s="2" t="s">
         <v>28</v>
@@ -21754,7 +21844,7 @@
         <v>28</v>
       </c>
       <c r="F483" s="36" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G483" s="7" t="s">
         <v>28</v>
@@ -21769,12 +21859,12 @@
         <v>28</v>
       </c>
       <c r="K483" s="58" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="484" spans="1:11" ht="15.75">
       <c r="B484" s="16" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C484" s="2" t="s">
         <v>28</v>
@@ -21786,7 +21876,7 @@
         <v>28</v>
       </c>
       <c r="F484" s="36" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G484" s="7" t="s">
         <v>28</v>
@@ -21801,12 +21891,12 @@
         <v>28</v>
       </c>
       <c r="K484" s="58" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="485" spans="1:11" ht="15.75">
       <c r="B485" s="16" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C485" s="2" t="s">
         <v>28</v>
@@ -21833,12 +21923,12 @@
         <v>28</v>
       </c>
       <c r="K485" s="58" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="486" spans="1:11" ht="15.75">
       <c r="B486" s="16" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C486" s="2" t="s">
         <v>28</v>
@@ -21865,12 +21955,12 @@
         <v>28</v>
       </c>
       <c r="K486" s="58" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="487" spans="1:11" ht="15.75">
       <c r="B487" s="16" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C487" s="2" t="s">
         <v>28</v>
@@ -21897,12 +21987,12 @@
         <v>28</v>
       </c>
       <c r="K487" s="58" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="488" spans="1:11" ht="15.75">
       <c r="B488" s="16" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C488" s="2" t="s">
         <v>28</v>
@@ -21929,12 +22019,12 @@
         <v>28</v>
       </c>
       <c r="K488" s="58" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="489" spans="1:11" ht="15.75">
       <c r="B489" s="16" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C489" s="2" t="s">
         <v>28</v>
@@ -21946,7 +22036,7 @@
         <v>28</v>
       </c>
       <c r="F489" s="36" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G489" s="7" t="s">
         <v>28</v>
@@ -21961,12 +22051,12 @@
         <v>28</v>
       </c>
       <c r="K489" s="58" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="490" spans="1:11" ht="15.75">
       <c r="B490" s="16" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C490" s="2" t="s">
         <v>28</v>
@@ -21993,7 +22083,7 @@
         <v>28</v>
       </c>
       <c r="K490" s="58" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="492" spans="1:11" ht="15.75">
@@ -22326,7 +22416,7 @@
     </row>
     <row r="503" spans="1:12" ht="15.75">
       <c r="B503" s="16" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="C503" s="2" t="s">
         <v>28</v>
@@ -22358,10 +22448,10 @@
     </row>
     <row r="504" spans="1:12" ht="15.75">
       <c r="A504" s="28" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="B504" s="39" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="C504" s="10"/>
       <c r="D504" s="10"/>
@@ -22535,7 +22625,7 @@
         <v>29</v>
       </c>
       <c r="L509" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
     </row>
     <row r="510" spans="1:12" ht="15.75">
@@ -23139,7 +23229,7 @@
     </row>
     <row r="530" spans="1:12" ht="15.75">
       <c r="B530" s="16" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="C530" s="2" t="s">
         <v>28</v>
@@ -23961,7 +24051,7 @@
     </row>
     <row r="556" spans="1:12" ht="15.75">
       <c r="B556" s="16" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="C556" s="2" t="s">
         <v>28</v>
@@ -24778,7 +24868,7 @@
     </row>
     <row r="582" spans="1:12" ht="15.75">
       <c r="B582" s="16" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="C582" s="2" t="s">
         <v>55</v>
@@ -25262,12 +25352,12 @@
     </row>
     <row r="597" spans="1:12" ht="15.75">
       <c r="A597" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="598" spans="1:12" ht="15.75">
       <c r="B598" s="16" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C598" s="2" t="s">
         <v>28</v>
@@ -25299,7 +25389,7 @@
     </row>
     <row r="599" spans="1:12" ht="15.75">
       <c r="B599" s="16" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C599" s="2" t="s">
         <v>28</v>
@@ -25331,7 +25421,7 @@
     </row>
     <row r="600" spans="1:12" ht="15.75">
       <c r="B600" s="16" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C600" s="2" t="s">
         <v>28</v>
@@ -25726,7 +25816,7 @@
     </row>
     <row r="614" spans="1:13" ht="15.75">
       <c r="B614" s="22" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="C614" s="2" t="s">
         <v>28</v>
@@ -26658,7 +26748,7 @@
     </row>
     <row r="644" spans="1:12" ht="15.75">
       <c r="B644" s="22" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="C644" s="2" t="s">
         <v>28</v>
@@ -27626,7 +27716,7 @@
     </row>
     <row r="674" spans="1:12" ht="15.75">
       <c r="B674" s="22" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="C674" s="2" t="s">
         <v>55</v>
@@ -28582,7 +28672,7 @@
     </row>
     <row r="704" spans="1:12" ht="15.75">
       <c r="B704" s="16" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="C704" s="2" t="s">
         <v>55</v>
@@ -29239,10 +29329,10 @@
     </row>
     <row r="725" spans="1:11" ht="15.75">
       <c r="A725" s="28" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="B725" s="39" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C725" s="10"/>
       <c r="D725" s="10"/>
@@ -29256,10 +29346,10 @@
     </row>
     <row r="726" spans="1:11" ht="15.75">
       <c r="A726" s="28" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="B726" s="39" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="C726" s="10"/>
       <c r="D726" s="10"/>
@@ -29273,12 +29363,12 @@
     </row>
     <row r="728" spans="1:11" ht="15.75">
       <c r="A728" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="729" spans="1:11" ht="15.75">
       <c r="B729" s="16" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C729" s="2" t="s">
         <v>28</v>
@@ -29310,7 +29400,7 @@
     </row>
     <row r="730" spans="1:11" ht="15.75">
       <c r="B730" s="16" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C730" s="2" t="s">
         <v>28</v>
@@ -29342,7 +29432,7 @@
     </row>
     <row r="731" spans="1:11" ht="15.75">
       <c r="B731" s="16" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C731" s="2" t="s">
         <v>28</v>
@@ -29675,7 +29765,7 @@
     </row>
     <row r="744" spans="1:12" ht="15.75">
       <c r="A744" s="1" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="745" spans="1:12" ht="15.75">
@@ -29744,7 +29834,7 @@
     </row>
     <row r="747" spans="1:12" ht="15.75">
       <c r="B747" s="16" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C747" s="2" t="s">
         <v>28</v>
@@ -29776,7 +29866,7 @@
     </row>
     <row r="748" spans="1:12" ht="15.75">
       <c r="B748" s="16" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C748" s="2" t="s">
         <v>28</v>
@@ -29808,7 +29898,7 @@
     </row>
     <row r="749" spans="1:12" ht="15.75">
       <c r="B749" s="16" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C749" s="2" t="s">
         <v>28</v>
@@ -29843,7 +29933,7 @@
     </row>
     <row r="750" spans="1:12" ht="15.75">
       <c r="B750" s="16" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C750" s="2" t="s">
         <v>28</v>
@@ -29870,50 +29960,50 @@
         <v>28</v>
       </c>
       <c r="K750" s="56" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="L750" s="12" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="751" spans="1:12" ht="15.75">
       <c r="B751" s="16" t="s">
+        <v>636</v>
+      </c>
+      <c r="C751" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D751" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E751" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F751" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G751" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H751" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I751" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J751" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="K751" s="56" t="s">
         <v>634</v>
       </c>
-      <c r="C751" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D751" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E751" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F751" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G751" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H751" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I751" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J751" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="K751" s="56" t="s">
-        <v>632</v>
-      </c>
       <c r="L751" s="12" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="752" spans="1:12" ht="15.75">
       <c r="B752" s="32" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C752" s="5" t="s">
         <v>146</v>
@@ -29945,7 +30035,7 @@
     </row>
     <row r="753" spans="1:12" ht="15.75">
       <c r="B753" s="32" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C753" s="5" t="s">
         <v>146</v>
@@ -29977,7 +30067,7 @@
     </row>
     <row r="754" spans="1:12" ht="15.75">
       <c r="B754" s="32" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C754" s="5" t="s">
         <v>146</v>
@@ -30009,7 +30099,7 @@
     </row>
     <row r="755" spans="1:12" ht="15.75">
       <c r="B755" s="32" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C755" s="5" t="s">
         <v>146</v>
@@ -30044,10 +30134,10 @@
         <v>169</v>
       </c>
       <c r="B756" s="32" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C756" s="36" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D756" s="5" t="s">
         <v>146</v>
@@ -30074,12 +30164,12 @@
         <v>29</v>
       </c>
       <c r="L756" s="28" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
     </row>
     <row r="757" spans="1:12" ht="15.75">
       <c r="B757" s="32" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C757" s="5" t="s">
         <v>146</v>
@@ -30109,12 +30199,12 @@
         <v>29</v>
       </c>
       <c r="L757" s="28" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
     </row>
     <row r="759" spans="1:12" ht="15.75">
       <c r="A759" s="38" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="760" spans="1:12" ht="15.75">
@@ -30186,7 +30276,7 @@
     <row r="762" spans="1:12" ht="15.75">
       <c r="A762" s="1"/>
       <c r="B762" s="22" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C762" s="2" t="s">
         <v>146</v>
@@ -30219,7 +30309,7 @@
     <row r="763" spans="1:12" ht="15.75">
       <c r="A763" s="1"/>
       <c r="B763" s="22" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C763" s="5" t="s">
         <v>146</v>
@@ -30251,7 +30341,7 @@
     </row>
     <row r="764" spans="1:12" ht="15.75">
       <c r="B764" s="22" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C764" s="5" t="s">
         <v>146</v>
@@ -30283,7 +30373,7 @@
     </row>
     <row r="765" spans="1:12" ht="15.75">
       <c r="B765" s="22" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C765" s="5" t="s">
         <v>146</v>
@@ -30315,7 +30405,7 @@
     </row>
     <row r="766" spans="1:12" ht="15.75">
       <c r="B766" s="22" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C766" s="5" t="s">
         <v>146</v>
@@ -30347,7 +30437,7 @@
     </row>
     <row r="767" spans="1:12" ht="15.75">
       <c r="B767" s="22" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C767" s="2" t="s">
         <v>146</v>
@@ -30379,7 +30469,7 @@
     </row>
     <row r="768" spans="1:12" ht="15.75">
       <c r="B768" s="22" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C768" s="2" t="s">
         <v>146</v>
@@ -30411,7 +30501,7 @@
     </row>
     <row r="769" spans="1:12" ht="15.75">
       <c r="B769" s="22" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C769" s="2" t="s">
         <v>146</v>
@@ -30443,7 +30533,7 @@
     </row>
     <row r="770" spans="1:12" ht="15.75">
       <c r="B770" s="22" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C770" s="2" t="s">
         <v>146</v>
@@ -30478,10 +30568,10 @@
         <v>169</v>
       </c>
       <c r="B771" s="32" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C771" s="36" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D771" s="5" t="s">
         <v>146</v>
@@ -30508,12 +30598,12 @@
         <v>29</v>
       </c>
       <c r="L771" s="28" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
     </row>
     <row r="772" spans="1:12" ht="15.75">
       <c r="B772" s="32" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C772" s="5" t="s">
         <v>146</v>
@@ -30543,7 +30633,7 @@
         <v>29</v>
       </c>
       <c r="L772" s="28" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
     </row>
     <row r="773" spans="1:12" s="10" customFormat="1" ht="15.75">
@@ -30554,7 +30644,7 @@
     </row>
     <row r="774" spans="1:12" ht="15.75">
       <c r="A774" s="17" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
     </row>
     <row r="775" spans="1:12" ht="15.75">
@@ -30631,7 +30721,7 @@
     <row r="777" spans="1:12" ht="15.75">
       <c r="A777" s="1"/>
       <c r="B777" s="22" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C777" s="2" t="s">
         <v>61</v>
@@ -30664,7 +30754,7 @@
     <row r="778" spans="1:12" ht="15.75">
       <c r="A778" s="1"/>
       <c r="B778" s="22" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C778" s="2" t="s">
         <v>61</v>
@@ -30696,7 +30786,7 @@
     </row>
     <row r="779" spans="1:12" ht="15.75">
       <c r="B779" s="22" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C779" s="2" t="s">
         <v>61</v>
@@ -30728,7 +30818,7 @@
     </row>
     <row r="780" spans="1:12" ht="15.75">
       <c r="B780" s="22" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C780" s="5" t="s">
         <v>61</v>
@@ -30746,7 +30836,7 @@
         <v>61</v>
       </c>
       <c r="H780" s="4" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="I780" s="5" t="s">
         <v>61</v>
@@ -30758,12 +30848,12 @@
         <v>29</v>
       </c>
       <c r="L780" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="781" spans="1:12" ht="15.75">
       <c r="B781" s="22" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C781" s="5" t="s">
         <v>61</v>
@@ -30781,7 +30871,7 @@
         <v>61</v>
       </c>
       <c r="H781" s="4" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="I781" s="5" t="s">
         <v>61</v>
@@ -30795,7 +30885,7 @@
     </row>
     <row r="782" spans="1:12" ht="15.75">
       <c r="B782" s="22" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C782" s="5" t="s">
         <v>61</v>
@@ -30827,7 +30917,7 @@
     </row>
     <row r="783" spans="1:12" ht="15.75">
       <c r="B783" s="22" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C783" s="5" t="s">
         <v>61</v>
@@ -30859,7 +30949,7 @@
     </row>
     <row r="784" spans="1:12" ht="15.75">
       <c r="B784" s="22" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C784" s="5" t="s">
         <v>61</v>
@@ -30891,7 +30981,7 @@
     </row>
     <row r="785" spans="1:12" ht="15.75">
       <c r="B785" s="22" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C785" s="5" t="s">
         <v>61</v>
@@ -30926,10 +31016,10 @@
         <v>169</v>
       </c>
       <c r="B786" s="32" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C786" s="36" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D786" s="5" t="s">
         <v>61</v>
@@ -30956,12 +31046,12 @@
         <v>29</v>
       </c>
       <c r="L786" s="28" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
     </row>
     <row r="787" spans="1:12" ht="15.75">
       <c r="B787" s="32" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C787" s="5" t="s">
         <v>61</v>
@@ -30991,7 +31081,7 @@
         <v>29</v>
       </c>
       <c r="L787" s="28" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
     </row>
     <row r="788" spans="1:12" s="10" customFormat="1" ht="15.75">
@@ -31002,7 +31092,7 @@
     </row>
     <row r="789" spans="1:12" ht="15.75">
       <c r="A789" s="17" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
     </row>
     <row r="790" spans="1:12" ht="15.75">
@@ -31079,7 +31169,7 @@
     <row r="792" spans="1:12" ht="15.75">
       <c r="A792" s="1"/>
       <c r="B792" s="22" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C792" s="2" t="s">
         <v>61</v>
@@ -31112,7 +31202,7 @@
     <row r="793" spans="1:12" ht="15.75">
       <c r="A793" s="1"/>
       <c r="B793" s="22" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C793" s="2" t="s">
         <v>61</v>
@@ -31144,7 +31234,7 @@
     </row>
     <row r="794" spans="1:12" ht="15.75">
       <c r="B794" s="22" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C794" s="2" t="s">
         <v>61</v>
@@ -31176,7 +31266,7 @@
     </row>
     <row r="795" spans="1:12" ht="15.75">
       <c r="B795" s="22" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C795" s="5" t="s">
         <v>61</v>
@@ -31194,7 +31284,7 @@
         <v>61</v>
       </c>
       <c r="H795" s="4" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="I795" s="5" t="s">
         <v>61</v>
@@ -31206,12 +31296,12 @@
         <v>29</v>
       </c>
       <c r="L795" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="796" spans="1:12" ht="15.75">
       <c r="B796" s="22" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C796" s="5" t="s">
         <v>61</v>
@@ -31229,7 +31319,7 @@
         <v>61</v>
       </c>
       <c r="H796" s="4" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="I796" s="5" t="s">
         <v>61</v>
@@ -31243,7 +31333,7 @@
     </row>
     <row r="797" spans="1:12" ht="15.75">
       <c r="B797" s="22" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C797" s="5" t="s">
         <v>61</v>
@@ -31275,7 +31365,7 @@
     </row>
     <row r="798" spans="1:12" ht="15.75">
       <c r="B798" s="22" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C798" s="5" t="s">
         <v>61</v>
@@ -31307,7 +31397,7 @@
     </row>
     <row r="799" spans="1:12" ht="15.75">
       <c r="B799" s="22" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C799" s="5" t="s">
         <v>61</v>
@@ -31339,7 +31429,7 @@
     </row>
     <row r="800" spans="1:12" ht="15.75">
       <c r="B800" s="22" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C800" s="5" t="s">
         <v>61</v>
@@ -31374,10 +31464,10 @@
         <v>169</v>
       </c>
       <c r="B801" s="32" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C801" s="36" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D801" s="5" t="s">
         <v>61</v>
@@ -31404,12 +31494,12 @@
         <v>29</v>
       </c>
       <c r="L801" s="28" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
     </row>
     <row r="802" spans="1:12" ht="15.75">
       <c r="B802" s="32" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C802" s="5" t="s">
         <v>61</v>
@@ -31439,18 +31529,18 @@
         <v>29</v>
       </c>
       <c r="L802" s="28" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
     </row>
     <row r="804" spans="1:12" ht="15.75"/>
     <row r="805" spans="1:12" ht="15.75">
       <c r="A805" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="806" spans="1:12" ht="15.75">
       <c r="B806" s="16" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C806" s="2" t="s">
         <v>28</v>
@@ -31482,7 +31572,7 @@
     </row>
     <row r="807" spans="1:12" ht="15.75">
       <c r="B807" s="16" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C807" s="2" t="s">
         <v>28</v>
@@ -31514,7 +31604,7 @@
     </row>
     <row r="808" spans="1:12" ht="15.75">
       <c r="B808" s="16" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C808" s="2" t="s">
         <v>28</v>
@@ -31546,7 +31636,7 @@
     </row>
     <row r="809" spans="1:12" ht="15.75">
       <c r="B809" s="16" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C809" s="2" t="s">
         <v>28</v>
@@ -31578,7 +31668,7 @@
     </row>
     <row r="810" spans="1:12" ht="15.75">
       <c r="B810" s="16" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="C810" s="2" t="s">
         <v>28</v>
@@ -31610,7 +31700,7 @@
     </row>
     <row r="811" spans="1:12" ht="15.75">
       <c r="B811" s="16" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="C811" s="2" t="s">
         <v>28</v>
@@ -31642,7 +31732,7 @@
     </row>
     <row r="812" spans="1:12" ht="15.75">
       <c r="B812" s="16" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="C812" s="2" t="s">
         <v>28</v>
@@ -31674,7 +31764,7 @@
     </row>
     <row r="813" spans="1:12" ht="15.75">
       <c r="B813" s="16" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="C813" s="2" t="s">
         <v>28</v>
@@ -31706,7 +31796,7 @@
     </row>
     <row r="815" spans="1:12" ht="15.75">
       <c r="A815" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="816" spans="1:12" ht="15.75">
@@ -31807,7 +31897,7 @@
     </row>
     <row r="819" spans="1:11" ht="15.75">
       <c r="B819" s="16" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C819" s="2" t="s">
         <v>28</v>
@@ -31839,7 +31929,7 @@
     </row>
     <row r="820" spans="1:11" ht="15.75">
       <c r="B820" s="16" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C820" s="2" t="s">
         <v>28</v>
@@ -31871,7 +31961,7 @@
     </row>
     <row r="822" spans="1:11" ht="15.75">
       <c r="A822" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="823" spans="1:11" ht="15.75">
@@ -31919,7 +32009,7 @@
   <dimension ref="A1:O912"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C390" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C383" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="L390" sqref="L390"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
@@ -37495,10 +37585,10 @@
         <v>192</v>
       </c>
       <c r="K175" s="82"/>
-      <c r="L175" s="103" t="s">
+      <c r="L175" s="102" t="s">
         <v>194</v>
       </c>
-      <c r="M175" s="104">
+      <c r="M175" s="103">
         <v>14155</v>
       </c>
       <c r="N175" s="44"/>
@@ -59030,7 +59120,7 @@
       <c r="D419" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E419" s="105" t="s">
+      <c r="E419" s="104" t="s">
         <v>307</v>
       </c>
       <c r="F419" s="7" t="s">
@@ -59062,7 +59152,7 @@
       <c r="D420" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E420" s="105" t="s">
+      <c r="E420" s="104" t="s">
         <v>307</v>
       </c>
       <c r="F420" s="7" t="s">
@@ -60682,9 +60772,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220BD97F-8101-40DE-8A7E-00D7ECBFE193}">
   <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane xSplit="2" ySplit="9" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -60780,8 +60870,8 @@
       <c r="A5" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="76">
-        <v>2.16</v>
+      <c r="B5" s="76" t="s">
+        <v>362</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" t="s">
@@ -60845,12 +60935,12 @@
     </row>
     <row r="10" spans="1:12" ht="15.75">
       <c r="A10" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75">
       <c r="B11" s="16" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>28</v>
@@ -60914,7 +61004,7 @@
     </row>
     <row r="13" spans="1:12" ht="15.75">
       <c r="B13" s="16" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>28</v>
@@ -60946,7 +61036,7 @@
     </row>
     <row r="14" spans="1:12" ht="15.75">
       <c r="B14" s="16" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>28</v>
@@ -60978,7 +61068,7 @@
     </row>
     <row r="15" spans="1:12" ht="15.75">
       <c r="B15" s="16" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>28</v>
@@ -61010,7 +61100,7 @@
     </row>
     <row r="16" spans="1:12" ht="15.75">
       <c r="B16" s="16" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>28</v>
@@ -61042,7 +61132,7 @@
     </row>
     <row r="17" spans="1:12" ht="15.75">
       <c r="B17" s="16" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>28</v>
@@ -61072,48 +61162,48 @@
         <v>29</v>
       </c>
       <c r="L17" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" t="s">
         <v>370</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75">
       <c r="A19" s="17"/>
       <c r="B19" s="16" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>117</v>
@@ -61146,7 +61236,7 @@
     <row r="20" spans="1:12" ht="15.75">
       <c r="A20" s="17"/>
       <c r="B20" s="16" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>117</v>
@@ -61179,7 +61269,7 @@
     <row r="21" spans="1:12" ht="15.75">
       <c r="A21" s="17"/>
       <c r="B21" s="16" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>117</v>
@@ -61211,13 +61301,13 @@
     </row>
     <row r="22" spans="1:12" ht="15.75">
       <c r="B22" s="16" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>28</v>
@@ -61229,7 +61319,7 @@
         <v>28</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>28</v>
@@ -61243,7 +61333,7 @@
     </row>
     <row r="23" spans="1:12" ht="15.75">
       <c r="B23" s="16" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>28</v>
@@ -61275,7 +61365,7 @@
     </row>
     <row r="24" spans="1:12" ht="15.75">
       <c r="B24" s="16" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>28</v>
@@ -61307,7 +61397,7 @@
     </row>
     <row r="25" spans="1:12" ht="15.75">
       <c r="B25" s="16" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>28</v>
@@ -61337,12 +61427,12 @@
         <v>29</v>
       </c>
       <c r="L25" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75">
       <c r="B26" s="32" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>146</v>
@@ -61374,7 +61464,7 @@
     </row>
     <row r="27" spans="1:12" ht="15.75">
       <c r="B27" s="32" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>146</v>
@@ -61406,7 +61496,7 @@
     </row>
     <row r="28" spans="1:12" ht="15.75">
       <c r="B28" s="32" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>208</v>
@@ -61415,7 +61505,7 @@
         <v>208</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>208</v>
@@ -61434,12 +61524,12 @@
       </c>
       <c r="K28" s="63"/>
       <c r="L28" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75">
       <c r="B29" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>208</v>
@@ -61448,7 +61538,7 @@
         <v>208</v>
       </c>
       <c r="E29" s="36" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>208</v>
@@ -61469,7 +61559,7 @@
     </row>
     <row r="30" spans="1:12" ht="15.75">
       <c r="B30" s="32" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>208</v>
@@ -61499,7 +61589,7 @@
     </row>
     <row r="31" spans="1:12" ht="15.75">
       <c r="B31" s="16" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>28</v>
@@ -61531,7 +61621,7 @@
     </row>
     <row r="32" spans="1:12" ht="15.75">
       <c r="B32" s="32" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>72</v>
@@ -61564,13 +61654,13 @@
     </row>
     <row r="34" spans="1:12" ht="15.75">
       <c r="A34" s="38" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.75">
       <c r="A35" s="17"/>
       <c r="B35" s="16" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>61</v>
@@ -61604,7 +61694,7 @@
     <row r="36" spans="1:12" ht="15.75">
       <c r="A36" s="17"/>
       <c r="B36" s="16" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>61</v>
@@ -61634,13 +61724,13 @@
         <v>29</v>
       </c>
       <c r="L36" s="28" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.75">
       <c r="A37" s="17"/>
       <c r="B37" s="16" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>61</v>
@@ -61673,7 +61763,7 @@
     <row r="38" spans="1:12" ht="15.75">
       <c r="A38" s="17"/>
       <c r="B38" s="16" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>61</v>
@@ -61705,8 +61795,8 @@
     </row>
     <row r="39" spans="1:12" ht="15.75">
       <c r="A39" s="17"/>
-      <c r="B39" s="100" t="s">
-        <v>396</v>
+      <c r="B39" s="32" t="s">
+        <v>398</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>61</v>
@@ -61718,7 +61808,7 @@
         <v>61</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>61</v>
@@ -61772,7 +61862,7 @@
     </row>
     <row r="42" spans="1:12" ht="15.75">
       <c r="A42" s="38" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L42">
         <v>12496</v>
@@ -61780,7 +61870,7 @@
     </row>
     <row r="43" spans="1:12" ht="15.75">
       <c r="B43" s="16" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>140</v>
@@ -61809,7 +61899,7 @@
     </row>
     <row r="44" spans="1:12" ht="15.75">
       <c r="B44" s="16" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>140</v>
@@ -61841,7 +61931,7 @@
     </row>
     <row r="46" spans="1:12" ht="15.75">
       <c r="A46" s="38" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L46">
         <v>12496</v>
@@ -61850,7 +61940,7 @@
     <row r="47" spans="1:12" ht="15.75">
       <c r="A47" s="17"/>
       <c r="B47" s="16" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>140</v>
@@ -61877,13 +61967,13 @@
         <v>140</v>
       </c>
       <c r="L47" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="15.75">
       <c r="A48" s="17"/>
       <c r="B48" s="16" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>140</v>
@@ -61916,7 +62006,7 @@
     <row r="49" spans="1:12" ht="15.75">
       <c r="A49" s="17"/>
       <c r="B49" s="16" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>140</v>
@@ -61946,7 +62036,7 @@
     <row r="50" spans="1:12" ht="15.75">
       <c r="A50" s="17"/>
       <c r="B50" s="16" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>140</v>
@@ -61976,7 +62066,7 @@
     <row r="51" spans="1:12" ht="15.75"/>
     <row r="52" spans="1:12" ht="15.75">
       <c r="A52" s="38" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L52" s="44">
         <v>13379</v>
@@ -61985,7 +62075,7 @@
     <row r="53" spans="1:12" ht="15.75">
       <c r="A53" s="17"/>
       <c r="B53" s="16" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>72</v>
@@ -62012,13 +62102,13 @@
         <v>72</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="15.75">
       <c r="A54" s="17"/>
       <c r="B54" s="16" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>72</v>
@@ -62045,16 +62135,16 @@
         <v>72</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L54" s="28" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="15.75">
       <c r="A55" s="17"/>
       <c r="B55" s="16" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>72</v>
@@ -62081,7 +62171,7 @@
         <v>72</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="15.75">
@@ -62114,7 +62204,7 @@
         <v>72</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15.75">
@@ -62147,17 +62237,17 @@
         <v>72</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="15.75">
       <c r="A59" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="15.75">
       <c r="B60" s="16" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>28</v>
@@ -62189,7 +62279,7 @@
     </row>
     <row r="61" spans="1:12" ht="15.75">
       <c r="B61" s="16" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>28</v>
@@ -62221,7 +62311,7 @@
     </row>
     <row r="62" spans="1:12" ht="15.75">
       <c r="B62" s="16" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>28</v>
@@ -62253,7 +62343,7 @@
     </row>
     <row r="63" spans="1:12" ht="15.75">
       <c r="B63" s="32" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>28</v>
@@ -62280,10 +62370,10 @@
         <v>28</v>
       </c>
       <c r="K63" s="62" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L63" s="10" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="15.75">
@@ -62320,7 +62410,7 @@
     </row>
     <row r="65" spans="1:12" ht="15.75">
       <c r="B65" s="32" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>61</v>
@@ -62332,7 +62422,7 @@
         <v>61</v>
       </c>
       <c r="F65" s="36" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>61</v>
@@ -62350,12 +62440,12 @@
         <v>36</v>
       </c>
       <c r="L65" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="15.75">
       <c r="B66" s="32" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>61</v>
@@ -62390,7 +62480,7 @@
     </row>
     <row r="67" spans="1:12" ht="15.75">
       <c r="B67" s="32" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>208</v>
@@ -62423,7 +62513,7 @@
     </row>
     <row r="68" spans="1:12" ht="15.75">
       <c r="B68" s="32" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>208</v>
@@ -62456,7 +62546,7 @@
     </row>
     <row r="69" spans="1:12" ht="15.75">
       <c r="B69" s="32" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>208</v>
@@ -62489,12 +62579,12 @@
     </row>
     <row r="71" spans="1:12" ht="15.75">
       <c r="A71" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="15.75">
       <c r="B72" s="16" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>28</v>
@@ -62521,12 +62611,12 @@
         <v>28</v>
       </c>
       <c r="K72" s="71" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="15.75">
       <c r="B73" s="16" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>28</v>
@@ -62553,7 +62643,7 @@
         <v>28</v>
       </c>
       <c r="K73" s="71" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="15.75">
@@ -62586,7 +62676,7 @@
         <v>28</v>
       </c>
       <c r="K74" s="71" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L74" s="10" t="s">
         <v>196</v>
@@ -62623,7 +62713,7 @@
       </c>
       <c r="K75" s="63"/>
       <c r="L75" s="10" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="15.75">
@@ -62655,12 +62745,12 @@
         <v>28</v>
       </c>
       <c r="K76" s="71" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="15.75">
       <c r="B77" s="16" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>28</v>
@@ -62687,12 +62777,12 @@
         <v>28</v>
       </c>
       <c r="K77" s="71" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="15.75">
       <c r="B78" s="16" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>28</v>
@@ -62719,12 +62809,12 @@
         <v>28</v>
       </c>
       <c r="K78" s="71" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="15.75">
       <c r="B79" s="16" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>28</v>
@@ -62751,12 +62841,12 @@
         <v>28</v>
       </c>
       <c r="K79" s="71" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="15.75">
       <c r="B80" s="16" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>28</v>
@@ -62791,7 +62881,7 @@
     </row>
     <row r="81" spans="1:12" ht="15.75">
       <c r="B81" s="16" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>28</v>
@@ -62818,12 +62908,12 @@
         <v>28</v>
       </c>
       <c r="K81" s="71" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="15.75">
       <c r="B82" s="16" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>28</v>
@@ -62902,7 +62992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94690D02-87A0-4DBD-A9C1-12B5113815E8}">
   <dimension ref="A1:L706"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
@@ -63065,7 +63155,7 @@
     </row>
     <row r="10" spans="1:12" ht="15.75">
       <c r="A10" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75">
@@ -63104,10 +63194,10 @@
     <row r="12" spans="1:12" ht="15.75">
       <c r="A12" s="1"/>
       <c r="B12" s="16" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>269</v>
@@ -63137,10 +63227,10 @@
     <row r="13" spans="1:12" ht="15.75">
       <c r="A13" s="1"/>
       <c r="B13" s="16" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>269</v>
@@ -63170,7 +63260,7 @@
     <row r="14" spans="1:12" ht="15.75">
       <c r="A14" s="1"/>
       <c r="B14" s="16" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>269</v>
@@ -63200,13 +63290,13 @@
         <v>29</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75">
       <c r="A15" s="1"/>
       <c r="B15" s="16" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>269</v>
@@ -63239,7 +63329,7 @@
     <row r="16" spans="1:12" ht="15.75">
       <c r="A16" s="1"/>
       <c r="B16" s="16" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>269</v>
@@ -63257,7 +63347,7 @@
         <v>269</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>269</v>
@@ -63272,7 +63362,7 @@
     <row r="17" spans="1:12" ht="15.75">
       <c r="A17" s="1"/>
       <c r="B17" s="16" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>269</v>
@@ -63305,7 +63395,7 @@
     <row r="18" spans="1:12" ht="15.75">
       <c r="A18" s="1"/>
       <c r="B18" s="16" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>269</v>
@@ -63338,7 +63428,7 @@
     <row r="19" spans="1:12" ht="15.75">
       <c r="A19" s="1"/>
       <c r="B19" s="16" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>269</v>
@@ -63371,7 +63461,7 @@
     <row r="20" spans="1:12" ht="15.75">
       <c r="A20" s="1"/>
       <c r="B20" s="16" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>269</v>
@@ -63404,7 +63494,7 @@
     <row r="21" spans="1:12" ht="15.75">
       <c r="A21" s="1"/>
       <c r="B21" s="16" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>269</v>
@@ -63437,7 +63527,7 @@
     <row r="22" spans="1:12" ht="15.75">
       <c r="A22" s="1"/>
       <c r="B22" s="16" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>269</v>
@@ -63469,7 +63559,7 @@
     </row>
     <row r="24" spans="1:12" ht="15.75">
       <c r="A24" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75">
@@ -63506,7 +63596,7 @@
     </row>
     <row r="26" spans="1:12" ht="15.75">
       <c r="B26" s="16" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>269</v>
@@ -63538,7 +63628,7 @@
     </row>
     <row r="27" spans="1:12" ht="15.75">
       <c r="B27" s="16" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>269</v>
@@ -63556,7 +63646,7 @@
         <v>269</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>269</v>
@@ -63570,7 +63660,7 @@
     </row>
     <row r="28" spans="1:12" ht="15.75">
       <c r="B28" s="16" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>269</v>
@@ -63602,7 +63692,7 @@
     </row>
     <row r="29" spans="1:12" ht="15.75">
       <c r="B29" s="16" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>269</v>
@@ -63634,7 +63724,7 @@
     </row>
     <row r="30" spans="1:12" ht="15.75">
       <c r="B30" s="16" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>269</v>
@@ -63666,7 +63756,7 @@
     </row>
     <row r="31" spans="1:12" ht="15.75">
       <c r="B31" s="32" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>137</v>
@@ -63694,12 +63784,12 @@
       </c>
       <c r="K31" s="63"/>
       <c r="L31" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75">
       <c r="B32" s="16" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>269</v>
@@ -63722,7 +63812,7 @@
     </row>
     <row r="33" spans="2:12" ht="15.75">
       <c r="B33" s="16" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>269</v>
@@ -63754,7 +63844,7 @@
     </row>
     <row r="34" spans="2:12" ht="15.75">
       <c r="B34" s="16" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>269</v>
@@ -63813,7 +63903,7 @@
         <v>176</v>
       </c>
       <c r="L35" s="44" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="15.75">
@@ -63848,7 +63938,7 @@
         <v>179</v>
       </c>
       <c r="L36" s="44" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="39" spans="2:12" ht="15.75"/>
@@ -64099,8 +64189,8 @@
   <dimension ref="A1:L802"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="M40" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="M40" sqref="M40"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C67" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -64261,7 +64351,7 @@
     </row>
     <row r="10" spans="1:12" ht="15.75">
       <c r="A10" s="17" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="L10">
         <v>13388</v>
@@ -64269,7 +64359,7 @@
     </row>
     <row r="11" spans="1:12" ht="15.75">
       <c r="B11" s="16" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>230</v>
@@ -64360,7 +64450,7 @@
     </row>
     <row r="14" spans="1:12" ht="15.75">
       <c r="B14" s="16" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>230</v>
@@ -64412,12 +64502,12 @@
       </c>
       <c r="K15" s="63"/>
       <c r="L15" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75">
       <c r="B16" s="32" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C16" s="72" t="s">
         <v>230</v>
@@ -64443,12 +64533,12 @@
       </c>
       <c r="K16" s="63"/>
       <c r="L16" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75">
       <c r="B17" s="93" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C17" s="72" t="s">
         <v>230</v>
@@ -64473,12 +64563,12 @@
         <v>230</v>
       </c>
       <c r="L17" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75">
       <c r="B18" s="93" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C18" s="72" t="s">
         <v>230</v>
@@ -64501,12 +64591,12 @@
         <v>230</v>
       </c>
       <c r="L18" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75">
       <c r="B19" s="93" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C19" s="72" t="s">
         <v>230</v>
@@ -64529,12 +64619,12 @@
         <v>230</v>
       </c>
       <c r="L19" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75">
       <c r="B20" s="93" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>230</v>
@@ -64563,7 +64653,7 @@
     </row>
     <row r="21" spans="1:12" ht="15.75">
       <c r="B21" s="93" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>230</v>
@@ -64581,12 +64671,12 @@
         <v>230</v>
       </c>
       <c r="L21" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75">
       <c r="B22" s="93" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>230</v>
@@ -64615,7 +64705,7 @@
     </row>
     <row r="23" spans="1:12" ht="15.75">
       <c r="B23" s="93" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>230</v>
@@ -64644,7 +64734,7 @@
     </row>
     <row r="24" spans="1:12" ht="15.75">
       <c r="B24" s="93" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>230</v>
@@ -64673,7 +64763,7 @@
     </row>
     <row r="25" spans="1:12" ht="15.75">
       <c r="B25" s="93" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>230</v>
@@ -64700,12 +64790,12 @@
         <v>230</v>
       </c>
       <c r="L25" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75">
       <c r="B26" s="93" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>230</v>
@@ -64732,12 +64822,12 @@
         <v>230</v>
       </c>
       <c r="L26" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75">
       <c r="B27" s="93" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>230</v>
@@ -64764,12 +64854,12 @@
         <v>230</v>
       </c>
       <c r="L27" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75">
       <c r="B28" s="93" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>230</v>
@@ -64799,7 +64889,7 @@
     <row r="29" spans="1:12" ht="15.75"/>
     <row r="30" spans="1:12" ht="15.75">
       <c r="A30" s="17" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="L30" t="s">
         <v>301</v>
@@ -64807,7 +64897,7 @@
     </row>
     <row r="31" spans="1:12" ht="15.75">
       <c r="B31" s="16" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>230</v>
@@ -64894,7 +64984,7 @@
     </row>
     <row r="34" spans="2:12">
       <c r="B34" s="16" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>230</v>
@@ -64923,7 +65013,7 @@
     </row>
     <row r="35" spans="2:12" ht="15.75">
       <c r="B35" s="16" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>230</v>
@@ -64952,7 +65042,7 @@
     </row>
     <row r="36" spans="2:12" ht="15.75">
       <c r="B36" s="16" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>230</v>
@@ -64979,12 +65069,12 @@
         <v>230</v>
       </c>
       <c r="L36" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="37" spans="2:12" ht="15.75">
       <c r="B37" s="16" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>230</v>
@@ -65011,12 +65101,12 @@
         <v>230</v>
       </c>
       <c r="L37" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="38" spans="2:12" ht="15.75">
       <c r="B38" s="16" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>230</v>
@@ -65043,12 +65133,12 @@
         <v>230</v>
       </c>
       <c r="L38" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="39" spans="2:12" ht="15.75">
       <c r="B39" s="16" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>230</v>
@@ -65075,12 +65165,12 @@
         <v>230</v>
       </c>
       <c r="L39" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="40" spans="2:12">
       <c r="B40" s="16" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>230</v>
@@ -65107,12 +65197,12 @@
         <v>230</v>
       </c>
       <c r="L40" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="41" spans="2:12">
       <c r="B41" s="16" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>230</v>
@@ -65139,12 +65229,12 @@
         <v>230</v>
       </c>
       <c r="L41" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="42" spans="2:12">
       <c r="B42" s="16" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>230</v>
@@ -65171,12 +65261,12 @@
         <v>230</v>
       </c>
       <c r="L42" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="43" spans="2:12">
       <c r="B43" s="16" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C43" s="72"/>
       <c r="D43" s="72" t="s">
@@ -65193,7 +65283,7 @@
         <v>230</v>
       </c>
       <c r="L43" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="44" spans="2:12">
@@ -65227,7 +65317,7 @@
     </row>
     <row r="45" spans="2:12">
       <c r="B45" s="16" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>230</v>
@@ -65256,7 +65346,7 @@
     </row>
     <row r="46" spans="2:12">
       <c r="B46" s="16" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>230</v>
@@ -65285,7 +65375,7 @@
     </row>
     <row r="47" spans="2:12" ht="15.75">
       <c r="B47" s="16" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C47" s="72"/>
       <c r="D47" s="72"/>
@@ -65296,12 +65386,12 @@
       <c r="I47" s="72"/>
       <c r="J47" s="57"/>
       <c r="L47" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="15.75">
       <c r="B48" s="16" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C48" s="72"/>
       <c r="D48" s="72"/>
@@ -65312,12 +65402,12 @@
       <c r="I48" s="72"/>
       <c r="J48" s="57"/>
       <c r="L48" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15.75">
       <c r="B49" s="16" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C49" s="72"/>
       <c r="D49" s="72"/>
@@ -65328,7 +65418,7 @@
       <c r="I49" s="72"/>
       <c r="J49" s="57"/>
       <c r="L49" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="15.75">
@@ -65336,7 +65426,7 @@
     </row>
     <row r="51" spans="1:12" ht="15.75">
       <c r="A51" s="17" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="15.75">
@@ -65370,7 +65460,7 @@
     </row>
     <row r="53" spans="1:12" ht="15.75">
       <c r="B53" s="16" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>230</v>
@@ -65399,7 +65489,7 @@
     </row>
     <row r="54" spans="1:12" ht="15.75">
       <c r="B54" s="16" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>230</v>
@@ -65428,7 +65518,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="B55" s="16" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>230</v>
@@ -65457,7 +65547,7 @@
     </row>
     <row r="56" spans="1:12">
       <c r="B56" s="16" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>230</v>
@@ -65486,7 +65576,7 @@
     </row>
     <row r="58" spans="1:12" ht="15.75">
       <c r="A58" s="17" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -65520,7 +65610,7 @@
     </row>
     <row r="60" spans="1:12">
       <c r="B60" s="16" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>230</v>
@@ -65578,7 +65668,7 @@
     </row>
     <row r="62" spans="1:12" ht="15.75">
       <c r="B62" s="16" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>230</v>
@@ -65605,12 +65695,12 @@
         <v>230</v>
       </c>
       <c r="L62" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="15.75">
       <c r="B63" s="16" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>230</v>
@@ -65639,7 +65729,7 @@
     </row>
     <row r="64" spans="1:12" ht="15.75">
       <c r="B64" s="16" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>230</v>
@@ -65669,12 +65759,12 @@
     <row r="65" spans="1:10" ht="15.75"/>
     <row r="66" spans="1:10" ht="15.75">
       <c r="A66" s="17" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15.75">
       <c r="B67" s="16" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>230</v>
@@ -65703,7 +65793,7 @@
     </row>
     <row r="68" spans="1:10" ht="15.75">
       <c r="B68" s="16" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>230</v>
@@ -65732,7 +65822,7 @@
     </row>
     <row r="69" spans="1:10" ht="15.75">
       <c r="B69" s="16" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>230</v>
@@ -65761,12 +65851,12 @@
     </row>
     <row r="71" spans="1:10" ht="15.75">
       <c r="A71" s="17" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="B72" s="16" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>230</v>
@@ -65795,7 +65885,7 @@
     </row>
     <row r="73" spans="1:10">
       <c r="B73" s="16" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>230</v>
@@ -65824,7 +65914,7 @@
     </row>
     <row r="74" spans="1:10">
       <c r="B74" s="16" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>230</v>
@@ -65896,7 +65986,7 @@
   <dimension ref="A1:L829"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
@@ -66058,15 +66148,15 @@
     </row>
     <row r="10" spans="1:12" ht="15.75">
       <c r="A10" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75">
       <c r="A11" s="44" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>28</v>
@@ -66098,7 +66188,7 @@
     </row>
     <row r="12" spans="1:12" ht="15.75">
       <c r="B12" s="16" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>28</v>
@@ -66130,7 +66220,7 @@
     </row>
     <row r="13" spans="1:12" ht="15.75">
       <c r="B13" s="16" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>28</v>
@@ -66162,7 +66252,7 @@
     </row>
     <row r="14" spans="1:12" ht="15.75">
       <c r="B14" s="16" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>28</v>
@@ -66194,7 +66284,7 @@
     </row>
     <row r="15" spans="1:12" ht="15.75">
       <c r="B15" s="16" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>28</v>
@@ -66226,7 +66316,7 @@
     </row>
     <row r="16" spans="1:12" ht="15.75">
       <c r="B16" s="16" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>28</v>
@@ -66261,7 +66351,7 @@
         <v>169</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>28</v>
@@ -66288,10 +66378,10 @@
         <v>28</v>
       </c>
       <c r="K17" s="71" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="L17" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75">
@@ -66299,34 +66389,34 @@
         <v>169</v>
       </c>
       <c r="B18" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="71" t="s">
         <v>521</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="71" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="10" customFormat="1" ht="15.75">
@@ -66336,14 +66426,14 @@
     </row>
     <row r="20" spans="1:12" ht="15.75">
       <c r="A20" s="38" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B20" s="98"/>
     </row>
     <row r="21" spans="1:12" ht="15.75">
       <c r="A21" s="44"/>
       <c r="B21" s="32" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>176</v>
@@ -66371,13 +66461,13 @@
       </c>
       <c r="K21" s="63"/>
       <c r="L21" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75">
       <c r="A22" s="44"/>
       <c r="B22" s="32" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>176</v>
@@ -66405,13 +66495,13 @@
       </c>
       <c r="K22" s="63"/>
       <c r="L22" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75">
       <c r="A23" s="44"/>
       <c r="B23" s="32" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>176</v>
@@ -66442,7 +66532,7 @@
     <row r="24" spans="1:12" ht="15.75">
       <c r="A24" s="44"/>
       <c r="B24" s="32" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>176</v>
@@ -66473,7 +66563,7 @@
     <row r="25" spans="1:12" ht="15.75">
       <c r="A25" s="44"/>
       <c r="B25" s="32" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>176</v>
@@ -66504,7 +66594,7 @@
     <row r="26" spans="1:12" ht="15.75">
       <c r="A26" s="44"/>
       <c r="B26" s="32" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>176</v>
@@ -66537,7 +66627,7 @@
         <v>169</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>176</v>
@@ -66570,7 +66660,7 @@
         <v>169</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>176</v>
@@ -66600,12 +66690,12 @@
     </row>
     <row r="30" spans="1:12" ht="15.75">
       <c r="A30" s="1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75">
       <c r="B31" s="16" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>28</v>
@@ -66637,7 +66727,7 @@
     </row>
     <row r="32" spans="1:12" ht="15.75">
       <c r="B32" s="16" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>28</v>
@@ -66669,7 +66759,7 @@
     </row>
     <row r="33" spans="1:11" ht="15.75">
       <c r="B33" s="16" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>28</v>
@@ -66701,7 +66791,7 @@
     </row>
     <row r="34" spans="1:11" ht="15.75">
       <c r="B34" s="16" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>28</v>
@@ -66733,7 +66823,7 @@
     </row>
     <row r="35" spans="1:11" ht="15.75">
       <c r="B35" s="16" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>28</v>
@@ -66765,7 +66855,7 @@
     </row>
     <row r="36" spans="1:11" ht="15.75">
       <c r="B36" s="16" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>28</v>
@@ -66797,7 +66887,7 @@
     </row>
     <row r="37" spans="1:11" ht="15.75">
       <c r="B37" s="16" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>28</v>
@@ -66829,7 +66919,7 @@
     </row>
     <row r="38" spans="1:11" ht="15.75">
       <c r="B38" s="16" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>28</v>
@@ -66862,12 +66952,12 @@
     <row r="39" spans="1:11" ht="15.75"/>
     <row r="40" spans="1:11" ht="15.75">
       <c r="A40" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75">
       <c r="B41" s="16" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>28</v>
@@ -66899,7 +66989,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.75">
       <c r="B42" s="16" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>28</v>
@@ -66931,7 +67021,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.75">
       <c r="B43" s="16" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>28</v>
@@ -66963,12 +67053,12 @@
     </row>
     <row r="45" spans="1:11" ht="15.75">
       <c r="A45" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.75">
       <c r="B46" s="16" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>28</v>
@@ -67000,7 +67090,7 @@
     </row>
     <row r="47" spans="1:11" ht="15.75">
       <c r="B47" s="16" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>28</v>
@@ -67032,7 +67122,7 @@
     </row>
     <row r="48" spans="1:11" ht="15.75">
       <c r="B48" s="16" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>28</v>
@@ -67263,7 +67353,7 @@
   <dimension ref="A1:L810"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="J20" sqref="E20:J20"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
@@ -67425,15 +67515,15 @@
     </row>
     <row r="10" spans="1:12" ht="15.75">
       <c r="A10" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="L10" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75">
       <c r="B11" s="16" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>28</v>
@@ -67445,7 +67535,7 @@
         <v>28</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>28</v>
@@ -67466,19 +67556,19 @@
     <row r="12" spans="1:12" ht="15.75">
       <c r="A12" s="1"/>
       <c r="B12" s="16" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C12" s="36" t="s">
+        <v>547</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="36" t="s">
         <v>545</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>543</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>28</v>
@@ -67510,7 +67600,7 @@
         <v>28</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>28</v>
@@ -67543,7 +67633,7 @@
         <v>28</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>28</v>
@@ -67575,7 +67665,7 @@
         <v>28</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>28</v>
@@ -67596,10 +67686,10 @@
     <row r="16" spans="1:12" ht="15.75">
       <c r="A16" s="1"/>
       <c r="B16" s="39" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>28</v>
@@ -67608,7 +67698,7 @@
         <v>28</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>28</v>
@@ -67631,7 +67721,7 @@
     </row>
     <row r="17" spans="1:11" ht="15.75">
       <c r="B17" s="16" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>28</v>
@@ -67643,7 +67733,7 @@
         <v>28</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>28</v>
@@ -67673,10 +67763,10 @@
         <v>28</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>28</v>
@@ -67696,19 +67786,19 @@
     </row>
     <row r="19" spans="1:11" ht="15.75">
       <c r="B19" s="16" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C19" s="36" t="s">
+        <v>547</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="F19" s="36" t="s">
         <v>545</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>543</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>28</v>
@@ -67741,7 +67831,7 @@
         <v>28</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>28</v>
@@ -67761,7 +67851,7 @@
     </row>
     <row r="21" spans="1:11" ht="15.75">
       <c r="B21" s="16" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>28</v>
@@ -67773,7 +67863,7 @@
         <v>28</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>28</v>
@@ -67793,7 +67883,7 @@
     </row>
     <row r="22" spans="1:11" ht="15.75">
       <c r="B22" s="16" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>28</v>
@@ -67825,7 +67915,7 @@
     </row>
     <row r="23" spans="1:11" ht="15.75">
       <c r="B23" s="16" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>28</v>
@@ -67857,7 +67947,7 @@
     </row>
     <row r="24" spans="1:11" ht="15.75">
       <c r="B24" s="16" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>28</v>
@@ -67869,7 +67959,7 @@
         <v>28</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>28</v>
@@ -67884,12 +67974,12 @@
         <v>28</v>
       </c>
       <c r="K24" s="66" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75">
       <c r="B25" s="16" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>28</v>
@@ -67901,7 +67991,7 @@
         <v>28</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>28</v>
@@ -67916,7 +68006,7 @@
         <v>28</v>
       </c>
       <c r="K25" s="66" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75">
@@ -67933,7 +68023,7 @@
         <v>28</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>28</v>
@@ -67965,7 +68055,7 @@
         <v>28</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>28</v>
@@ -67980,44 +68070,44 @@
         <v>28</v>
       </c>
       <c r="K27" s="66" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75">
       <c r="B28" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>545</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" s="66" t="s">
         <v>556</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" s="36" t="s">
-        <v>543</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J28" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K28" s="66" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75">
       <c r="B29" s="16" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>28</v>
@@ -68029,7 +68119,7 @@
         <v>28</v>
       </c>
       <c r="F29" s="36" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>28</v>
@@ -68044,12 +68134,12 @@
         <v>28</v>
       </c>
       <c r="K29" s="66" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75">
       <c r="B30" s="16" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>28</v>
@@ -68061,7 +68151,7 @@
         <v>28</v>
       </c>
       <c r="F30" s="36" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>28</v>
@@ -68076,12 +68166,12 @@
         <v>28</v>
       </c>
       <c r="K30" s="66" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75">
       <c r="B31" s="16" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>28</v>
@@ -68093,7 +68183,7 @@
         <v>28</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>28</v>
@@ -68108,12 +68198,12 @@
         <v>28</v>
       </c>
       <c r="K31" s="66" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75">
       <c r="B32" s="16" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>28</v>
@@ -68125,7 +68215,7 @@
         <v>28</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>28</v>
@@ -68140,12 +68230,12 @@
         <v>28</v>
       </c>
       <c r="K32" s="66" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="15.75">
       <c r="B33" s="16" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>28</v>
@@ -68157,7 +68247,7 @@
         <v>28</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>28</v>
@@ -68172,12 +68262,12 @@
         <v>28</v>
       </c>
       <c r="K33" s="66" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="34" spans="2:11" ht="15.75">
       <c r="B34" s="16" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>28</v>
@@ -68189,7 +68279,7 @@
         <v>28</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>28</v>
@@ -68204,12 +68294,12 @@
         <v>28</v>
       </c>
       <c r="K34" s="66" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="15.75">
       <c r="B35" s="16" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>28</v>
@@ -68218,10 +68308,10 @@
         <v>28</v>
       </c>
       <c r="E35" s="90" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>28</v>
@@ -68236,12 +68326,12 @@
         <v>28</v>
       </c>
       <c r="K35" s="66" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="36" spans="2:11" ht="15.75">
       <c r="B36" s="16" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>28</v>
@@ -68268,12 +68358,12 @@
         <v>28</v>
       </c>
       <c r="K36" s="66" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="37" spans="2:11" ht="15.75">
       <c r="B37" s="16" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>28</v>
@@ -68300,12 +68390,12 @@
         <v>28</v>
       </c>
       <c r="K37" s="66" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="38" spans="2:11" ht="15.75">
       <c r="B38" s="16" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>28</v>
@@ -68332,12 +68422,12 @@
         <v>28</v>
       </c>
       <c r="K38" s="66" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="39" spans="2:11" ht="15.75">
       <c r="B39" s="16" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>28</v>
@@ -68364,12 +68454,12 @@
         <v>28</v>
       </c>
       <c r="K39" s="66" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="15.75">
       <c r="B40" s="16" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>28</v>
@@ -68381,7 +68471,7 @@
         <v>28</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>28</v>
@@ -68396,12 +68486,12 @@
         <v>28</v>
       </c>
       <c r="K40" s="66" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="41" spans="2:11" ht="15.75">
       <c r="B41" s="16" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>28</v>
@@ -68428,12 +68518,12 @@
         <v>28</v>
       </c>
       <c r="K41" s="66" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="42" spans="2:11" ht="15.75">
       <c r="B42" s="93" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>137</v>
@@ -68529,7 +68619,7 @@
   <dimension ref="A1:L827"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
@@ -68691,7 +68781,7 @@
     </row>
     <row r="10" spans="1:12" ht="15.75">
       <c r="A10" s="38" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75">
@@ -68756,7 +68846,7 @@
     </row>
     <row r="13" spans="1:12" ht="15.75">
       <c r="B13" s="16" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>92</v>
@@ -68786,7 +68876,7 @@
     </row>
     <row r="14" spans="1:12" ht="15.75">
       <c r="B14" s="16" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>92</v>
@@ -68804,7 +68894,7 @@
         <v>92</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>92</v>
@@ -68819,7 +68909,7 @@
     </row>
     <row r="15" spans="1:12" ht="15.75">
       <c r="B15" s="16" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>92</v>
@@ -68850,13 +68940,13 @@
     <row r="16" spans="1:12" ht="15.75"/>
     <row r="17" spans="1:12" ht="15.75">
       <c r="A17" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75">
       <c r="A18" s="17"/>
       <c r="B18" s="16" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>255</v>
@@ -68889,7 +68979,7 @@
     <row r="19" spans="1:12" ht="15.75">
       <c r="A19" s="17"/>
       <c r="B19" s="16" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>255</v>
@@ -68898,7 +68988,7 @@
         <v>255</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>255</v>
@@ -68910,19 +69000,19 @@
         <v>255</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="J19" s="26" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="K19" s="66" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75">
       <c r="A20" s="17"/>
       <c r="B20" s="16" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>255</v>
@@ -68931,7 +69021,7 @@
         <v>255</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>255</v>
@@ -68943,22 +69033,22 @@
         <v>255</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="J20" s="26" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="K20" s="66" t="s">
         <v>29</v>
       </c>
       <c r="L20" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75">
       <c r="A21" s="17"/>
       <c r="B21" s="16" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>255</v>
@@ -68967,7 +69057,7 @@
         <v>255</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>255</v>
@@ -68979,10 +69069,10 @@
         <v>255</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="K21" s="61" t="s">
         <v>29</v>
@@ -68991,7 +69081,7 @@
     <row r="22" spans="1:12" ht="15.75">
       <c r="A22" s="17"/>
       <c r="B22" s="100" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>146</v>
@@ -69000,7 +69090,7 @@
         <v>146</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>146</v>
@@ -69012,19 +69102,19 @@
         <v>146</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="J22" s="20" t="s">
         <v>146</v>
       </c>
       <c r="K22" s="66" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75">
       <c r="A23" s="17"/>
       <c r="B23" s="32" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>140</v>
@@ -69058,7 +69148,7 @@
     <row r="24" spans="1:12" ht="15.75">
       <c r="A24" s="17"/>
       <c r="B24" s="32" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>140</v>
@@ -69089,7 +69179,7 @@
     <row r="25" spans="1:12" ht="15.75">
       <c r="A25" s="17"/>
       <c r="B25" s="32" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>140</v>
@@ -69117,18 +69207,18 @@
       </c>
       <c r="K25" s="63"/>
       <c r="L25" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75"/>
     <row r="27" spans="1:12" ht="15.75">
       <c r="A27" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75">
       <c r="B28" s="16" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>28</v>
@@ -69160,7 +69250,7 @@
     </row>
     <row r="29" spans="1:12" ht="15.75">
       <c r="B29" s="16" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>28</v>
@@ -69192,7 +69282,7 @@
     </row>
     <row r="30" spans="1:12" ht="15.75">
       <c r="B30" s="16" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>28</v>
@@ -69224,7 +69314,7 @@
     </row>
     <row r="31" spans="1:12" ht="15.75">
       <c r="B31" s="16" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>28</v>
@@ -69256,7 +69346,7 @@
     </row>
     <row r="32" spans="1:12" ht="15.75">
       <c r="B32" s="16" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>28</v>
@@ -69288,7 +69378,7 @@
     </row>
     <row r="33" spans="1:12" ht="15.75">
       <c r="B33" s="16" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>28</v>
@@ -69320,7 +69410,7 @@
     </row>
     <row r="34" spans="1:12" ht="15.75">
       <c r="B34" s="16" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>28</v>
@@ -69352,7 +69442,7 @@
     </row>
     <row r="35" spans="1:12" ht="15.75">
       <c r="B35" s="16" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>28</v>
@@ -69384,7 +69474,7 @@
     </row>
     <row r="36" spans="1:12" ht="15.75">
       <c r="B36" s="100" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>192</v>
@@ -69417,7 +69507,7 @@
     </row>
     <row r="38" spans="1:12" ht="15.75">
       <c r="A38" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.75">
@@ -69518,7 +69608,7 @@
     </row>
     <row r="42" spans="1:12" ht="15.75">
       <c r="B42" s="16" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>28</v>
@@ -69550,7 +69640,7 @@
     </row>
     <row r="43" spans="1:12" ht="15.75">
       <c r="B43" s="16" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>28</v>
@@ -69582,7 +69672,7 @@
     </row>
     <row r="44" spans="1:12" ht="15.75">
       <c r="B44" s="100" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>192</v>
@@ -69615,7 +69705,7 @@
     </row>
     <row r="45" spans="1:12" ht="15.75">
       <c r="B45" s="100" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>192</v>
@@ -69645,7 +69735,7 @@
     </row>
     <row r="46" spans="1:12" ht="15.75">
       <c r="B46" s="100" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>192</v>
@@ -69679,7 +69769,7 @@
     <row r="47" spans="1:12" ht="15.75"/>
     <row r="48" spans="1:12" ht="15.75">
       <c r="A48" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="49" spans="2:11" ht="15.75">
@@ -69903,6 +69993,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F9DF973880600B488549A76AE06F4E2C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d6cb30a5fe4e3d4f94d4e28efe0d24b6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e15bbd37-58c9-4429-a9ec-5bc419842533" xmlns:ns3="88ddcd4f-19ba-453d-aecf-103d2e65de8c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b67d21030a522ad04f5804de8eac6af" ns2:_="" ns3:_="">
     <xsd:import namespace="e15bbd37-58c9-4429-a9ec-5bc419842533"/>
@@ -70119,20 +70215,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9DD54F0-681D-4E47-A71C-E19CD0504E27}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{142F73F4-C24B-49BE-B3E5-3087748A64B4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1079424-6F4F-457F-B781-DAF6D040F653}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1079424-6F4F-457F-B781-DAF6D040F653}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{142F73F4-C24B-49BE-B3E5-3087748A64B4}"/>
 </file>